--- a/excel_data/output.xlsx
+++ b/excel_data/output.xlsx
@@ -552,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -568,7 +568,9 @@
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1">
@@ -584,6 +586,8 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2" ht="25" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
@@ -623,7 +627,17 @@
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>EBITDA</t>
+          <t>EBIT(Period=FY-1)</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>EBIT(Period=FY-2)</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>EBIT</t>
         </is>
       </c>
     </row>
@@ -661,7 +675,17 @@
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
-          <t>6,996,000,000</t>
+          <t>5,756,000,000</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>4,820,000,000</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>6,233,000,000</t>
         </is>
       </c>
     </row>
@@ -699,7 +723,17 @@
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>4,588,000,000</t>
+          <t>4,716,000,000</t>
+        </is>
+      </c>
+      <c r="I4" s="13" t="inlineStr">
+        <is>
+          <t>5,493,000,000</t>
+        </is>
+      </c>
+      <c r="J4" s="13" t="inlineStr">
+        <is>
+          <t>2,489,000,000</t>
         </is>
       </c>
     </row>
@@ -737,7 +771,17 @@
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>2,030,406,000</t>
+          <t>1,089,939,000</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>835,476,000</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>1,295,743,000</t>
         </is>
       </c>
     </row>
@@ -775,7 +819,17 @@
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>470,000,000</t>
+          <t>435,000,000</t>
+        </is>
+      </c>
+      <c r="I6" s="13" t="inlineStr">
+        <is>
+          <t>639,000,000</t>
+        </is>
+      </c>
+      <c r="J6" s="13" t="inlineStr">
+        <is>
+          <t>57,000,000</t>
         </is>
       </c>
     </row>
@@ -813,7 +867,17 @@
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>212,892,000</t>
+          <t>79,372,000</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>132,776,000</t>
+        </is>
+      </c>
+      <c r="J7" s="8" t="inlineStr">
+        <is>
+          <t>38,204,000</t>
         </is>
       </c>
     </row>
@@ -851,7 +915,17 @@
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>364,345,000</t>
+          <t>187,379,000</t>
+        </is>
+      </c>
+      <c r="I8" s="13" t="inlineStr">
+        <is>
+          <t>134,498,000</t>
+        </is>
+      </c>
+      <c r="J8" s="13" t="inlineStr">
+        <is>
+          <t>211,541,000</t>
         </is>
       </c>
     </row>
@@ -889,7 +963,17 @@
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>408,774,000</t>
+          <t>222,559,000</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>162,934,000</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>184,020,000</t>
         </is>
       </c>
     </row>
@@ -918,6 +1002,8 @@
         <v>28.2595367157739</v>
       </c>
       <c r="H10" s="13" t="inlineStr"/>
+      <c r="I10" s="13" t="inlineStr"/>
+      <c r="J10" s="13" t="inlineStr"/>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="5" t="inlineStr">
@@ -944,6 +1030,8 @@
         <v>40.68776218545854</v>
       </c>
       <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr"/>
+      <c r="J11" s="8" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="inlineStr">
@@ -962,20 +1050,26 @@
       <c r="F12" s="13" t="inlineStr"/>
       <c r="G12" s="13" t="inlineStr"/>
       <c r="H12" s="14" t="n">
-        <v>2066431099.674</v>
+        <v>1094010427.6547</v>
+      </c>
+      <c r="I12" s="14" t="n">
+        <v>924890260.2715</v>
+      </c>
+      <c r="J12" s="14" t="n">
+        <v>1164271978.424</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
         <is>
-          <t>📅 Generated: 2025-07-15 09:51:34 | 📊 Companies: 7</t>
+          <t>📅 Generated: 2025-07-16 09:41:46 | 📊 Companies: 7</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_data/output.xlsx
+++ b/excel_data/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Financial Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Financial Analysis" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -552,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -561,22 +561,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>📊 FINANCIAL ANALYSIS REPORT - Apparel, Accessories &amp; Luxury Goods</t>
+          <t>📊 FINANCIAL ANALYSIS REPORT - Biotechnology</t>
         </is>
       </c>
       <c r="B1" s="3" t="n"/>
@@ -587,7 +586,6 @@
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2" ht="25" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
@@ -617,25 +615,20 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>Depreciation Rate</t>
+          <t>P/E</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>P/E</t>
+          <t>EBIT(Period=FY-1)</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>EBIT(Period=FY-1)</t>
+          <t>EBIT(Period=FY-2)</t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>EBIT(Period=FY-2)</t>
-        </is>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>EBIT</t>
         </is>
@@ -644,22 +637,22 @@
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>Hermes International SCA</t>
+          <t>Vertex Pharmaceuticals Inc</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>HRMS.PA</t>
+          <t>VRTX.O</t>
         </is>
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>High Luxury Segment</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -668,46 +661,43 @@
         </is>
       </c>
       <c r="F3" s="9" t="n">
-        <v>-4.261932479627474</v>
-      </c>
-      <c r="G3" s="9" t="n">
-        <v>48.5640956521821</v>
+        <v>26.1182224730438</v>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>4,359,100,000</t>
+        </is>
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
-          <t>5,756,000,000</t>
+          <t>4,435,900,000</t>
         </is>
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>4,820,000,000</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>6,233,000,000</t>
+          <t>4,395,500,000</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="10" t="inlineStr">
         <is>
-          <t>Kering SA</t>
+          <t>Amgen Inc</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>PRTP.PA</t>
+          <t>AMGN.O</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
         <is>
-          <t>High Luxury Segment</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -716,46 +706,43 @@
         </is>
       </c>
       <c r="F4" s="14" t="n">
-        <v>-2.67177326694753</v>
-      </c>
-      <c r="G4" s="14" t="n">
-        <v>13.8351772366476</v>
+        <v>23.5769225420835</v>
+      </c>
+      <c r="G4" s="13" t="inlineStr">
+        <is>
+          <t>8,164,000,000</t>
+        </is>
       </c>
       <c r="H4" s="13" t="inlineStr">
         <is>
-          <t>4,716,000,000</t>
+          <t>10,133,000,000</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>5,493,000,000</t>
-        </is>
-      </c>
-      <c r="J4" s="13" t="inlineStr">
-        <is>
-          <t>2,489,000,000</t>
+          <t>9,658,000,000</t>
         </is>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>Prada SpA</t>
+          <t>Gilead Sciences Inc</t>
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>1913.HK</t>
+          <t>GILD.O</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>High Luxury Segment</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
@@ -764,46 +751,43 @@
         </is>
       </c>
       <c r="F5" s="9" t="n">
-        <v>-2.773128281004007</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <v>22.3807419514785</v>
+        <v>23.8844362124937</v>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>9,862,000,000</t>
+        </is>
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>1,089,939,000</t>
+          <t>11,380,000,000</t>
         </is>
       </c>
       <c r="I5" s="8" t="inlineStr">
         <is>
-          <t>835,476,000</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>1,295,743,000</t>
+          <t>10,828,000,000</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="10" t="inlineStr">
         <is>
-          <t>Burberry Group PLC</t>
+          <t>Biogen Inc</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>BRBY.L</t>
+          <t>BIIB.O</t>
         </is>
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D6" s="12" t="inlineStr">
         <is>
-          <t>High Luxury Segment</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -812,46 +796,43 @@
         </is>
       </c>
       <c r="F6" s="14" t="n">
-        <v>-4.575949367088608</v>
-      </c>
-      <c r="G6" s="14" t="n">
-        <v>9.58155632161982</v>
+        <v>12.4985413426534</v>
+      </c>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t>2,174,300,000</t>
+        </is>
       </c>
       <c r="H6" s="13" t="inlineStr">
         <is>
-          <t>435,000,000</t>
+          <t>3,559,400,000</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
         <is>
-          <t>639,000,000</t>
-        </is>
-      </c>
-      <c r="J6" s="13" t="inlineStr">
-        <is>
-          <t>57,000,000</t>
+          <t>2,651,400,000</t>
         </is>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Salvatore Ferragamo SpA</t>
+          <t>Regeneron Pharmaceuticals Inc</t>
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>SFER.MI</t>
+          <t>REGN.O</t>
         </is>
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>High Luxury Segment</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
@@ -860,46 +841,43 @@
         </is>
       </c>
       <c r="F7" s="9" t="n">
-        <v>-16.7788451606239</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>116.034881651539</v>
+        <v>14.1807029598628</v>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>4,335,500,000</t>
+        </is>
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>79,372,000</t>
+          <t>5,252,700,000</t>
         </is>
       </c>
       <c r="I7" s="8" t="inlineStr">
         <is>
-          <t>132,776,000</t>
-        </is>
-      </c>
-      <c r="J7" s="8" t="inlineStr">
-        <is>
-          <t>38,204,000</t>
+          <t>4,218,000,000</t>
         </is>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>Brunello Cucinelli SpA</t>
+          <t>Moderna Inc</t>
         </is>
       </c>
       <c r="B8" s="11" t="inlineStr">
         <is>
-          <t>BCU.MI</t>
+          <t>MRNA.O</t>
         </is>
       </c>
       <c r="C8" s="12" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>High Luxury Segment</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -907,47 +885,42 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="F8" s="14" t="n">
-        <v>-9.846168902540013</v>
-      </c>
-      <c r="G8" s="14" t="n">
-        <v>55.4911429322751</v>
+      <c r="F8" s="13" t="inlineStr"/>
+      <c r="G8" s="14" t="inlineStr">
+        <is>
+          <t>-2039000000.00</t>
+        </is>
       </c>
       <c r="H8" s="13" t="inlineStr">
         <is>
-          <t>187,379,000</t>
-        </is>
-      </c>
-      <c r="I8" s="13" t="inlineStr">
-        <is>
-          <t>134,498,000</t>
-        </is>
-      </c>
-      <c r="J8" s="13" t="inlineStr">
-        <is>
-          <t>211,541,000</t>
+          <t>9,420,000,000</t>
+        </is>
+      </c>
+      <c r="I8" s="14" t="inlineStr">
+        <is>
+          <t>-3450000000.00</t>
         </is>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Ermenegildo Zegna NV</t>
+          <t>CSL Ltd</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>ZGN.N</t>
+          <t>CSL.AX</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>High Luxury Segment</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -956,120 +929,662 @@
         </is>
       </c>
       <c r="F9" s="9" t="n">
-        <v>-15.44178910825122</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>18.9267395524676</v>
+        <v>30.4338825956299</v>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>3,069,000,000</t>
+        </is>
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>222,559,000</t>
+          <t>3,053,200,000</t>
         </is>
       </c>
       <c r="I9" s="8" t="inlineStr">
         <is>
-          <t>162,934,000</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>184,020,000</t>
+          <t>3,812,000,000</t>
         </is>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="10" t="inlineStr">
         <is>
-          <t>💼 Ø Apparel, Accessories &amp; Luxury Goods</t>
-        </is>
-      </c>
-      <c r="B10" s="11" t="inlineStr"/>
+          <t>argenx SE</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>ARGX.BR</t>
+        </is>
+      </c>
       <c r="C10" s="12" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
-        </is>
-      </c>
-      <c r="D10" s="12" t="inlineStr"/>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D10" s="12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E10" s="13" t="inlineStr">
         <is>
-          <t>Durchschnitt (Branche)</t>
+          <t>Zeile 1</t>
         </is>
       </c>
       <c r="F10" s="14" t="n">
-        <v>-8.165835564452204</v>
-      </c>
-      <c r="G10" s="14" t="n">
-        <v>28.2595367157739</v>
-      </c>
-      <c r="H10" s="13" t="inlineStr"/>
-      <c r="I10" s="13" t="inlineStr"/>
-      <c r="J10" s="13" t="inlineStr"/>
+        <v>34.2974556636527</v>
+      </c>
+      <c r="G10" s="14" t="inlineStr">
+        <is>
+          <t>-420638000.00</t>
+        </is>
+      </c>
+      <c r="H10" s="14" t="inlineStr">
+        <is>
+          <t>-719664000.00</t>
+        </is>
+      </c>
+      <c r="I10" s="14" t="inlineStr">
+        <is>
+          <t>-14010000.00</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>🎯 Ø High Luxury Segment</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr"/>
-      <c r="C11" s="7" t="inlineStr"/>
+          <t>Alnylam Pharmaceuticals Inc</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>ALNY.O</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>High Luxury Segment</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr">
         <is>
-          <t>Durchschnitt</t>
+          <t>Zeile 1</t>
         </is>
       </c>
       <c r="F11" s="9" t="n">
-        <v>-8.049940938011821</v>
-      </c>
-      <c r="G11" s="9" t="n">
-        <v>40.68776218545854</v>
-      </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
-      <c r="J11" s="8" t="inlineStr"/>
-    </row>
-    <row r="12">
+        <v>162.65793047708</v>
+      </c>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>-282175000.00</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>-785072000.00</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>-176885000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
       <c r="A12" s="10" t="inlineStr">
         <is>
-          <t>🏭 Ø Consumer Discretionary Sector</t>
-        </is>
-      </c>
-      <c r="B12" s="11" t="inlineStr"/>
-      <c r="C12" s="12" t="inlineStr"/>
-      <c r="D12" s="12" t="inlineStr"/>
+          <t>Idorsia Ltd</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>IDIA.S</t>
+        </is>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E12" s="13" t="inlineStr">
         <is>
-          <t>Durchschnitt (GICS Sector 25)</t>
+          <t>Zeile 1</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr"/>
-      <c r="G12" s="13" t="inlineStr"/>
-      <c r="H12" s="14" t="n">
-        <v>1094010427.6547</v>
-      </c>
-      <c r="I12" s="14" t="n">
-        <v>924890260.2715</v>
-      </c>
-      <c r="J12" s="14" t="n">
-        <v>1164271978.424</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="15" t="inlineStr">
-        <is>
-          <t>📅 Generated: 2025-07-16 09:41:46 | 📊 Companies: 7</t>
+      <c r="G12" s="14" t="inlineStr">
+        <is>
+          <t>-543052000.00</t>
+        </is>
+      </c>
+      <c r="H12" s="14" t="inlineStr">
+        <is>
+          <t>-802965000.00</t>
+        </is>
+      </c>
+      <c r="I12" s="14" t="inlineStr">
+        <is>
+          <t>-337256000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Biomarin Pharmaceutical Inc</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>BMRN.O</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>16.9829429991646</v>
+      </c>
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>185,774,000</t>
+        </is>
+      </c>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>52,974,000</t>
+        </is>
+      </c>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>570,042,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="10" t="inlineStr">
+        <is>
+          <t>Incyte Corp</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr">
+        <is>
+          <t>INCY.O</t>
+        </is>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D14" s="12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>18.010669926156</v>
+      </c>
+      <c r="G14" s="13" t="inlineStr">
+        <is>
+          <t>651,772,000</t>
+        </is>
+      </c>
+      <c r="H14" s="13" t="inlineStr">
+        <is>
+          <t>599,562,000</t>
+        </is>
+      </c>
+      <c r="I14" s="13" t="inlineStr">
+        <is>
+          <t>111,644,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Exact Sciences Corp</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>EXAS.O</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>-214391000.00</t>
+        </is>
+      </c>
+      <c r="H15" s="9" t="inlineStr">
+        <is>
+          <t>-577542000.00</t>
+        </is>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>-179243000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>United Therapeutics Corp</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="inlineStr">
+        <is>
+          <t>UTHR.O</t>
+        </is>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F16" s="14" t="n">
+        <v>11.7606996036469</v>
+      </c>
+      <c r="G16" s="13" t="inlineStr">
+        <is>
+          <t>1,188,500,000</t>
+        </is>
+      </c>
+      <c r="H16" s="13" t="inlineStr">
+        <is>
+          <t>990,900,000</t>
+        </is>
+      </c>
+      <c r="I16" s="13" t="inlineStr">
+        <is>
+          <t>1,448,100,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Grifols SA</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>GRLS.MC</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>29.621584543272</v>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>960,416,000</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>678,958,000</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>1,303,482,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>Swedish Orphan Biovitrum AB (publ)</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="inlineStr">
+        <is>
+          <t>SOBIV.ST</t>
+        </is>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E18" s="13" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F18" s="14" t="n">
+        <v>21.6557951082353</v>
+      </c>
+      <c r="G18" s="13" t="inlineStr">
+        <is>
+          <t>4,676,000,000</t>
+        </is>
+      </c>
+      <c r="H18" s="13" t="inlineStr">
+        <is>
+          <t>4,521,000,000</t>
+        </is>
+      </c>
+      <c r="I18" s="13" t="inlineStr">
+        <is>
+          <t>5,822,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Exelixis Inc</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>EXEL.O</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>18.090780032997</v>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>170,885,000</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>201,484,000</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr">
+        <is>
+          <t>689,949,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="10" t="inlineStr">
+        <is>
+          <t>Ionis Pharmaceuticals Inc</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="inlineStr">
+        <is>
+          <t>IONS.O</t>
+        </is>
+      </c>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D20" s="12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E20" s="13" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F20" s="13" t="inlineStr"/>
+      <c r="G20" s="14" t="inlineStr">
+        <is>
+          <t>-333730000.00</t>
+        </is>
+      </c>
+      <c r="H20" s="14" t="inlineStr">
+        <is>
+          <t>-410191000.00</t>
+        </is>
+      </c>
+      <c r="I20" s="14" t="inlineStr">
+        <is>
+          <t>-475081000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Natera Inc</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>NTRA.O</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>-446245000.00</t>
+        </is>
+      </c>
+      <c r="H21" s="9" t="inlineStr">
+        <is>
+          <t>-541040000.00</t>
+        </is>
+      </c>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>-222294000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="10" t="inlineStr">
+        <is>
+          <t>Halozyme Therapeutics Inc</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="inlineStr">
+        <is>
+          <t>HALO.O</t>
+        </is>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D22" s="12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E22" s="13" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>14.3714599712571</v>
+      </c>
+      <c r="G22" s="13" t="inlineStr">
+        <is>
+          <t>340,074,000</t>
+        </is>
+      </c>
+      <c r="H22" s="13" t="inlineStr">
+        <is>
+          <t>289,431,000</t>
+        </is>
+      </c>
+      <c r="I22" s="13" t="inlineStr">
+        <is>
+          <t>551,475,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>💼 Ø Biotechnology</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr"/>
+      <c r="C23" s="7" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>Durchschnitt (Branche)</t>
+        </is>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>30.54280176341524</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>🏭 Ø Health Care Sector</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="inlineStr"/>
+      <c r="C24" s="12" t="inlineStr"/>
+      <c r="D24" s="12" t="inlineStr"/>
+      <c r="E24" s="13" t="inlineStr">
+        <is>
+          <t>Durchschnitt (GICS Sector 35)</t>
+        </is>
+      </c>
+      <c r="F24" s="13" t="inlineStr"/>
+      <c r="G24" s="14" t="n">
+        <v>312813159.13</v>
+      </c>
+      <c r="H24" s="14" t="n">
+        <v>372797218.72</v>
+      </c>
+      <c r="I24" s="14" t="n">
+        <v>326126690.31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="15" t="inlineStr">
+        <is>
+          <t>📅 Generated: 2025-08-15 09:12:25 | 📊 Companies: 20</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_data/output.xlsx
+++ b/excel_data/output.xlsx
@@ -166,9 +166,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -179,6 +176,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -552,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -561,21 +561,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="36" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>📊 FINANCIAL ANALYSIS REPORT - Biotechnology</t>
+          <t>📊 FINANCIAL ANALYSIS REPORT - Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="B1" s="3" t="n"/>
@@ -587,7 +587,7 @@
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
     </row>
-    <row r="2" ht="25" customHeight="1">
+    <row r="2" ht="55" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Name</t>
@@ -615,7 +615,9 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>P/E</t>
+          <t>Price
+Change
+YTD (Pct)</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -637,22 +639,22 @@
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>Vertex Pharmaceuticals Inc</t>
+          <t>Danone SA</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>VRTX.O</t>
+          <t>DANO.PA</t>
         </is>
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Diversified</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -660,89 +662,93 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="F3" s="9" t="n">
-        <v>26.1182224730438</v>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>DANO.PA</t>
+        </is>
       </c>
       <c r="G3" s="8" t="inlineStr">
         <is>
-          <t>4,359,100,000</t>
+          <t>3,551,000,000</t>
         </is>
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
-          <t>4,435,900,000</t>
+          <t>3,583,000,000</t>
         </is>
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>4,395,500,000</t>
+          <t>3,631,000,000</t>
         </is>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>Amgen Inc</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>AMGN.O</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" s="13" t="inlineStr">
-        <is>
-          <t>Zeile 1</t>
-        </is>
-      </c>
-      <c r="F4" s="14" t="n">
-        <v>23.5769225420835</v>
-      </c>
-      <c r="G4" s="13" t="inlineStr">
-        <is>
-          <t>8,164,000,000</t>
-        </is>
-      </c>
-      <c r="H4" s="13" t="inlineStr">
-        <is>
-          <t>10,133,000,000</t>
-        </is>
-      </c>
-      <c r="I4" s="13" t="inlineStr">
-        <is>
-          <t>9,658,000,000</t>
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>Conagra Brands Inc</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>CAG</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>CAG</t>
+        </is>
+      </c>
+      <c r="G4" s="12" t="inlineStr">
+        <is>
+          <t>1,947,300,000</t>
+        </is>
+      </c>
+      <c r="H4" s="12" t="inlineStr">
+        <is>
+          <t>1,843,600,000</t>
+        </is>
+      </c>
+      <c r="I4" s="12" t="inlineStr">
+        <is>
+          <t>1,658,900,000</t>
         </is>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>Gilead Sciences Inc</t>
+          <t>J M Smucker Co</t>
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>GILD.O</t>
+          <t>SJM</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Diversified</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
@@ -750,89 +756,93 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="F5" s="9" t="n">
-        <v>23.8844362124937</v>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>SJM</t>
+        </is>
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>9,862,000,000</t>
+          <t>1,455,000,000</t>
         </is>
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>11,380,000,000</t>
+          <t>1,187,100,000</t>
         </is>
       </c>
       <c r="I5" s="8" t="inlineStr">
         <is>
-          <t>10,828,000,000</t>
+          <t>1,663,600,000</t>
         </is>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>Biogen Inc</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>BIIB.O</t>
-        </is>
-      </c>
-      <c r="C6" s="12" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="D6" s="12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E6" s="13" t="inlineStr">
-        <is>
-          <t>Zeile 1</t>
-        </is>
-      </c>
-      <c r="F6" s="14" t="n">
-        <v>12.4985413426534</v>
-      </c>
-      <c r="G6" s="13" t="inlineStr">
-        <is>
-          <t>2,174,300,000</t>
-        </is>
-      </c>
-      <c r="H6" s="13" t="inlineStr">
-        <is>
-          <t>3,559,400,000</t>
-        </is>
-      </c>
-      <c r="I6" s="13" t="inlineStr">
-        <is>
-          <t>2,651,400,000</t>
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>Ajinomoto Co Inc</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>2802.T</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="E6" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>2802.T</t>
+        </is>
+      </c>
+      <c r="G6" s="12" t="inlineStr">
+        <is>
+          <t>141,297,000,000</t>
+        </is>
+      </c>
+      <c r="H6" s="12" t="inlineStr">
+        <is>
+          <t>130,666,000,000</t>
+        </is>
+      </c>
+      <c r="I6" s="12" t="inlineStr">
+        <is>
+          <t>146,974,000,000</t>
         </is>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>Regeneron Pharmaceuticals Inc</t>
+          <t>Kraft Heinz Co</t>
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>REGN.O</t>
+          <t>KHC.O</t>
         </is>
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Diversified</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
@@ -840,87 +850,93 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="F7" s="9" t="n">
-        <v>14.1807029598628</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>KHC.O</t>
+        </is>
       </c>
       <c r="G7" s="8" t="inlineStr">
         <is>
-          <t>4,335,500,000</t>
+          <t>5,242,000,000</t>
         </is>
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>5,252,700,000</t>
+          <t>4,870,000,000</t>
         </is>
       </c>
       <c r="I7" s="8" t="inlineStr">
         <is>
-          <t>4,218,000,000</t>
+          <t>5,379,000,000</t>
         </is>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>Moderna Inc</t>
-        </is>
-      </c>
-      <c r="B8" s="11" t="inlineStr">
-        <is>
-          <t>MRNA.O</t>
-        </is>
-      </c>
-      <c r="C8" s="12" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t>Zeile 1</t>
-        </is>
-      </c>
-      <c r="F8" s="13" t="inlineStr"/>
-      <c r="G8" s="14" t="inlineStr">
-        <is>
-          <t>-2039000000.00</t>
-        </is>
-      </c>
-      <c r="H8" s="13" t="inlineStr">
-        <is>
-          <t>9,420,000,000</t>
-        </is>
-      </c>
-      <c r="I8" s="14" t="inlineStr">
-        <is>
-          <t>-3450000000.00</t>
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>Ebro Foods SA</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>EBRO.MC</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>EBRO.MC</t>
+        </is>
+      </c>
+      <c r="G8" s="12" t="inlineStr">
+        <is>
+          <t>284,869,000</t>
+        </is>
+      </c>
+      <c r="H8" s="12" t="inlineStr">
+        <is>
+          <t>233,483,000</t>
+        </is>
+      </c>
+      <c r="I8" s="12" t="inlineStr">
+        <is>
+          <t>304,870,000</t>
         </is>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>CSL Ltd</t>
+          <t>Premium Brands Holdings Corp</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>CSL.AX</t>
+          <t>PBH.TO</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Diversified</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -928,89 +944,93 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="F9" s="9" t="n">
-        <v>30.4338825956299</v>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>PBH.TO</t>
+        </is>
       </c>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>3,069,000,000</t>
+          <t>334,500,000</t>
         </is>
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>3,053,200,000</t>
+          <t>295,800,000</t>
         </is>
       </c>
       <c r="I9" s="8" t="inlineStr">
         <is>
-          <t>3,812,000,000</t>
+          <t>360,200,000</t>
         </is>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="10" t="inlineStr">
-        <is>
-          <t>argenx SE</t>
-        </is>
-      </c>
-      <c r="B10" s="11" t="inlineStr">
-        <is>
-          <t>ARGX.BR</t>
-        </is>
-      </c>
-      <c r="C10" s="12" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="D10" s="12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" s="13" t="inlineStr">
-        <is>
-          <t>Zeile 1</t>
-        </is>
-      </c>
-      <c r="F10" s="14" t="n">
-        <v>34.2974556636527</v>
-      </c>
-      <c r="G10" s="14" t="inlineStr">
-        <is>
-          <t>-420638000.00</t>
-        </is>
-      </c>
-      <c r="H10" s="14" t="inlineStr">
-        <is>
-          <t>-719664000.00</t>
-        </is>
-      </c>
-      <c r="I10" s="14" t="inlineStr">
-        <is>
-          <t>-14010000.00</t>
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>Associated British Foods PLC</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>ABF.L</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="inlineStr">
+        <is>
+          <t>ABF.L</t>
+        </is>
+      </c>
+      <c r="G10" s="12" t="inlineStr">
+        <is>
+          <t>1,345,000,000</t>
+        </is>
+      </c>
+      <c r="H10" s="12" t="inlineStr">
+        <is>
+          <t>1,274,000,000</t>
+        </is>
+      </c>
+      <c r="I10" s="12" t="inlineStr">
+        <is>
+          <t>1,860,000,000</t>
         </is>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Alnylam Pharmaceuticals Inc</t>
+          <t>Cranswick PLC</t>
         </is>
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>ALNY.O</t>
+          <t>CWK.L</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Diversified</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr">
@@ -1018,87 +1038,93 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="F11" s="9" t="n">
-        <v>162.65793047708</v>
-      </c>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>-282175000.00</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>-785072000.00</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>-176885000.00</t>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>CWK.L</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>180,100,000</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>141,300,000</t>
+        </is>
+      </c>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>203,300,000</t>
         </is>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t>Idorsia Ltd</t>
-        </is>
-      </c>
-      <c r="B12" s="11" t="inlineStr">
-        <is>
-          <t>IDIA.S</t>
-        </is>
-      </c>
-      <c r="C12" s="12" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="D12" s="12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" s="13" t="inlineStr">
-        <is>
-          <t>Zeile 1</t>
-        </is>
-      </c>
-      <c r="F12" s="13" t="inlineStr"/>
-      <c r="G12" s="14" t="inlineStr">
-        <is>
-          <t>-543052000.00</t>
-        </is>
-      </c>
-      <c r="H12" s="14" t="inlineStr">
-        <is>
-          <t>-802965000.00</t>
-        </is>
-      </c>
-      <c r="I12" s="14" t="inlineStr">
-        <is>
-          <t>-337256000.00</t>
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>Viscofan SA</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>VIS.MC</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Non-Paper Containers &amp; Packaging</t>
+        </is>
+      </c>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F12" s="12" t="inlineStr">
+        <is>
+          <t>VIS.MC</t>
+        </is>
+      </c>
+      <c r="G12" s="12" t="inlineStr">
+        <is>
+          <t>185,172,000</t>
+        </is>
+      </c>
+      <c r="H12" s="12" t="inlineStr">
+        <is>
+          <t>188,984,000</t>
+        </is>
+      </c>
+      <c r="I12" s="12" t="inlineStr">
+        <is>
+          <t>201,959,000</t>
         </is>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Biomarin Pharmaceutical Inc</t>
+          <t>Mondelez International Inc</t>
         </is>
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>BMRN.O</t>
+          <t>MDLZ.O</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Focus: Sweets/Cereals/Breakfast</t>
         </is>
       </c>
       <c r="E13" s="8" t="inlineStr">
@@ -1106,89 +1132,93 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="F13" s="9" t="n">
-        <v>16.9829429991646</v>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MDLZ.O</t>
+        </is>
       </c>
       <c r="G13" s="8" t="inlineStr">
         <is>
-          <t>185,774,000</t>
+          <t>6,071,000,000</t>
         </is>
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>52,974,000</t>
+          <t>4,560,000,000</t>
         </is>
       </c>
       <c r="I13" s="8" t="inlineStr">
         <is>
-          <t>570,042,000</t>
+          <t>6,620,000,000</t>
         </is>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="10" t="inlineStr">
-        <is>
-          <t>Incyte Corp</t>
-        </is>
-      </c>
-      <c r="B14" s="11" t="inlineStr">
-        <is>
-          <t>INCY.O</t>
-        </is>
-      </c>
-      <c r="C14" s="12" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E14" s="13" t="inlineStr">
-        <is>
-          <t>Zeile 1</t>
-        </is>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>18.010669926156</v>
-      </c>
-      <c r="G14" s="13" t="inlineStr">
-        <is>
-          <t>651,772,000</t>
-        </is>
-      </c>
-      <c r="H14" s="13" t="inlineStr">
-        <is>
-          <t>599,562,000</t>
-        </is>
-      </c>
-      <c r="I14" s="13" t="inlineStr">
-        <is>
-          <t>111,644,000</t>
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>Chocoladefabriken Lindt &amp; Spruengli AG</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>LISN.S</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Sweets/Cereals/Breakfast</t>
+        </is>
+      </c>
+      <c r="E14" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F14" s="12" t="inlineStr">
+        <is>
+          <t>LISN.S</t>
+        </is>
+      </c>
+      <c r="G14" s="12" t="inlineStr">
+        <is>
+          <t>826,100,000</t>
+        </is>
+      </c>
+      <c r="H14" s="12" t="inlineStr">
+        <is>
+          <t>752,700,000</t>
+        </is>
+      </c>
+      <c r="I14" s="12" t="inlineStr">
+        <is>
+          <t>906,100,000</t>
         </is>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Exact Sciences Corp</t>
+          <t>General Mills Inc</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>EXAS.O</t>
+          <t>GIS</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Focus: Sweets/Cereals/Breakfast</t>
         </is>
       </c>
       <c r="E15" s="8" t="inlineStr">
@@ -1196,87 +1226,93 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>-214391000.00</t>
-        </is>
-      </c>
-      <c r="H15" s="9" t="inlineStr">
-        <is>
-          <t>-577542000.00</t>
-        </is>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>-179243000.00</t>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>GIS</t>
+        </is>
+      </c>
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>3,623,400,000</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>3,079,000,000</t>
+        </is>
+      </c>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>3,359,900,000</t>
         </is>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="10" t="inlineStr">
-        <is>
-          <t>United Therapeutics Corp</t>
-        </is>
-      </c>
-      <c r="B16" s="11" t="inlineStr">
-        <is>
-          <t>UTHR.O</t>
-        </is>
-      </c>
-      <c r="C16" s="12" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="D16" s="12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E16" s="13" t="inlineStr">
-        <is>
-          <t>Zeile 1</t>
-        </is>
-      </c>
-      <c r="F16" s="14" t="n">
-        <v>11.7606996036469</v>
-      </c>
-      <c r="G16" s="13" t="inlineStr">
-        <is>
-          <t>1,188,500,000</t>
-        </is>
-      </c>
-      <c r="H16" s="13" t="inlineStr">
-        <is>
-          <t>990,900,000</t>
-        </is>
-      </c>
-      <c r="I16" s="13" t="inlineStr">
-        <is>
-          <t>1,448,100,000</t>
+      <c r="A16" s="9" t="inlineStr">
+        <is>
+          <t>Barry Callebaut AG</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>BARN.S</t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D16" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Sweets/Cereals/Breakfast</t>
+        </is>
+      </c>
+      <c r="E16" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F16" s="12" t="inlineStr">
+        <is>
+          <t>BARN.S</t>
+        </is>
+      </c>
+      <c r="G16" s="12" t="inlineStr">
+        <is>
+          <t>681,176,000</t>
+        </is>
+      </c>
+      <c r="H16" s="12" t="inlineStr">
+        <is>
+          <t>629,731,000</t>
+        </is>
+      </c>
+      <c r="I16" s="12" t="inlineStr">
+        <is>
+          <t>652,739,000</t>
         </is>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>Grifols SA</t>
+          <t>Suedzucker AG</t>
         </is>
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>GRLS.MC</t>
+          <t>SZUG.DE</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Focus: Sweets/Cereals/Breakfast</t>
         </is>
       </c>
       <c r="E17" s="8" t="inlineStr">
@@ -1284,89 +1320,93 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="F17" s="9" t="n">
-        <v>29.621584543272</v>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>SZUG.DE</t>
+        </is>
       </c>
       <c r="G17" s="8" t="inlineStr">
         <is>
-          <t>960,416,000</t>
+          <t>934,000,000</t>
         </is>
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>678,958,000</t>
+          <t>689,000,000</t>
         </is>
       </c>
       <c r="I17" s="8" t="inlineStr">
         <is>
-          <t>1,303,482,000</t>
+          <t>238,000,000</t>
         </is>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="10" t="inlineStr">
-        <is>
-          <t>Swedish Orphan Biovitrum AB (publ)</t>
-        </is>
-      </c>
-      <c r="B18" s="11" t="inlineStr">
-        <is>
-          <t>SOBIV.ST</t>
-        </is>
-      </c>
-      <c r="C18" s="12" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="D18" s="12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E18" s="13" t="inlineStr">
-        <is>
-          <t>Zeile 1</t>
-        </is>
-      </c>
-      <c r="F18" s="14" t="n">
-        <v>21.6557951082353</v>
-      </c>
-      <c r="G18" s="13" t="inlineStr">
-        <is>
-          <t>4,676,000,000</t>
-        </is>
-      </c>
-      <c r="H18" s="13" t="inlineStr">
-        <is>
-          <t>4,521,000,000</t>
-        </is>
-      </c>
-      <c r="I18" s="13" t="inlineStr">
-        <is>
-          <t>5,822,000,000</t>
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>Kellanova</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C18" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D18" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Sweets/Cereals/Breakfast</t>
+        </is>
+      </c>
+      <c r="E18" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F18" s="12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G18" s="12" t="inlineStr">
+        <is>
+          <t>1,720,000,000</t>
+        </is>
+      </c>
+      <c r="H18" s="12" t="inlineStr">
+        <is>
+          <t>1,374,000,000</t>
+        </is>
+      </c>
+      <c r="I18" s="12" t="inlineStr">
+        <is>
+          <t>1,924,000,000</t>
         </is>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Exelixis Inc</t>
+          <t>Flowers Foods Inc</t>
         </is>
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>EXEL.O</t>
+          <t>FLO</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Focus: Sweets/Cereals/Breakfast</t>
         </is>
       </c>
       <c r="E19" s="8" t="inlineStr">
@@ -1374,87 +1414,93 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="F19" s="9" t="n">
-        <v>18.090780032997</v>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>FLO</t>
+        </is>
       </c>
       <c r="G19" s="8" t="inlineStr">
         <is>
-          <t>170,885,000</t>
+          <t>352,329,000</t>
         </is>
       </c>
       <c r="H19" s="8" t="inlineStr">
         <is>
-          <t>201,484,000</t>
+          <t>360,073,000</t>
         </is>
       </c>
       <c r="I19" s="8" t="inlineStr">
         <is>
-          <t>689,949,000</t>
+          <t>378,842,000</t>
         </is>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="10" t="inlineStr">
-        <is>
-          <t>Ionis Pharmaceuticals Inc</t>
-        </is>
-      </c>
-      <c r="B20" s="11" t="inlineStr">
-        <is>
-          <t>IONS.O</t>
-        </is>
-      </c>
-      <c r="C20" s="12" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="D20" s="12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E20" s="13" t="inlineStr">
-        <is>
-          <t>Zeile 1</t>
-        </is>
-      </c>
-      <c r="F20" s="13" t="inlineStr"/>
-      <c r="G20" s="14" t="inlineStr">
-        <is>
-          <t>-333730000.00</t>
-        </is>
-      </c>
-      <c r="H20" s="14" t="inlineStr">
-        <is>
-          <t>-410191000.00</t>
-        </is>
-      </c>
-      <c r="I20" s="14" t="inlineStr">
-        <is>
-          <t>-475081000.00</t>
+      <c r="A20" s="9" t="inlineStr">
+        <is>
+          <t>Post Holdings Inc</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>POST.K</t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Sweets/Cereals/Breakfast</t>
+        </is>
+      </c>
+      <c r="E20" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F20" s="12" t="inlineStr">
+        <is>
+          <t>POST.K</t>
+        </is>
+      </c>
+      <c r="G20" s="12" t="inlineStr">
+        <is>
+          <t>641,200,000</t>
+        </is>
+      </c>
+      <c r="H20" s="12" t="inlineStr">
+        <is>
+          <t>423,600,000</t>
+        </is>
+      </c>
+      <c r="I20" s="12" t="inlineStr">
+        <is>
+          <t>790,300,000</t>
         </is>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Natera Inc</t>
+          <t>Lotus Bakeries NV</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>NTRA.O</t>
+          <t>LOTB.BR</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Focus: Sweets/Cereals/Breakfast</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
@@ -1462,129 +1508,2647 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="9" t="inlineStr">
-        <is>
-          <t>-446245000.00</t>
-        </is>
-      </c>
-      <c r="H21" s="9" t="inlineStr">
-        <is>
-          <t>-541040000.00</t>
-        </is>
-      </c>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>-222294000.00</t>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>LOTB.BR</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>172,974,000</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>140,188,000</t>
+        </is>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>206,628,000</t>
         </is>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="10" t="inlineStr">
-        <is>
-          <t>Halozyme Therapeutics Inc</t>
-        </is>
-      </c>
-      <c r="B22" s="11" t="inlineStr">
-        <is>
-          <t>HALO.O</t>
-        </is>
-      </c>
-      <c r="C22" s="12" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="D22" s="12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E22" s="13" t="inlineStr">
-        <is>
-          <t>Zeile 1</t>
-        </is>
-      </c>
-      <c r="F22" s="14" t="n">
-        <v>14.3714599712571</v>
-      </c>
-      <c r="G22" s="13" t="inlineStr">
-        <is>
-          <t>340,074,000</t>
-        </is>
-      </c>
-      <c r="H22" s="13" t="inlineStr">
-        <is>
-          <t>289,431,000</t>
-        </is>
-      </c>
-      <c r="I22" s="13" t="inlineStr">
-        <is>
-          <t>551,475,000</t>
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>Grupo Bimbo SAB de CV</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>BIMBOA.MX</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Sweets/Cereals/Breakfast</t>
+        </is>
+      </c>
+      <c r="E22" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F22" s="12" t="inlineStr">
+        <is>
+          <t>BIMBOA.MX</t>
+        </is>
+      </c>
+      <c r="G22" s="12" t="inlineStr">
+        <is>
+          <t>38,514,000,000</t>
+        </is>
+      </c>
+      <c r="H22" s="12" t="inlineStr">
+        <is>
+          <t>56,452,000,000</t>
+        </is>
+      </c>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>39,577,000,000</t>
         </is>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>💼 Ø Biotechnology</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="inlineStr"/>
+          <t>Emmi AG</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>EMMN.S</t>
+        </is>
+      </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="D23" s="7" t="inlineStr"/>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Dairy</t>
+        </is>
+      </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>EMMN.S</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>260,163,000</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr">
+        <is>
+          <t>267,091,000</t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>303,946,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="9" t="inlineStr">
+        <is>
+          <t>Saputo Inc</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>SAP.TO</t>
+        </is>
+      </c>
+      <c r="C24" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D24" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Dairy</t>
+        </is>
+      </c>
+      <c r="E24" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F24" s="12" t="inlineStr">
+        <is>
+          <t>SAP.TO</t>
+        </is>
+      </c>
+      <c r="G24" s="12" t="inlineStr">
+        <is>
+          <t>753,000,000</t>
+        </is>
+      </c>
+      <c r="H24" s="12" t="inlineStr">
+        <is>
+          <t>985,000,000</t>
+        </is>
+      </c>
+      <c r="I24" s="12" t="inlineStr">
+        <is>
+          <t>825,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Meiji Holdings Co Ltd</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>2269.T</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Dairy</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="inlineStr">
+        <is>
+          <t>2269.T</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>84,322,000,000</t>
+        </is>
+      </c>
+      <c r="H25" s="8" t="inlineStr">
+        <is>
+          <t>75,433,000,000</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>84,702,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="9" t="inlineStr">
+        <is>
+          <t>A2 Milk Company Ltd</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>ATM.NZ</t>
+        </is>
+      </c>
+      <c r="C26" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D26" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Dairy</t>
+        </is>
+      </c>
+      <c r="E26" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F26" s="12" t="inlineStr">
+        <is>
+          <t>ATM.NZ</t>
+        </is>
+      </c>
+      <c r="G26" s="12" t="inlineStr">
+        <is>
+          <t>201,221,000</t>
+        </is>
+      </c>
+      <c r="H26" s="12" t="inlineStr">
+        <is>
+          <t>177,409,000</t>
+        </is>
+      </c>
+      <c r="I26" s="12" t="inlineStr">
+        <is>
+          <t>202,241,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Oatly Group AB (publ)</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>OTLY.O</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Dairy</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="inlineStr">
+        <is>
+          <t>OTLY.O</t>
+        </is>
+      </c>
+      <c r="G27" s="13" t="inlineStr">
+        <is>
+          <t>-211076000.00</t>
+        </is>
+      </c>
+      <c r="H27" s="13" t="inlineStr">
+        <is>
+          <t>-319413000.00</t>
+        </is>
+      </c>
+      <c r="I27" s="13" t="inlineStr">
+        <is>
+          <t>-94051000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="9" t="inlineStr">
+        <is>
+          <t>China Mengniu Dairy Co Ltd</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>2319.HK</t>
+        </is>
+      </c>
+      <c r="C28" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D28" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Dairy</t>
+        </is>
+      </c>
+      <c r="E28" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F28" s="12" t="inlineStr">
+        <is>
+          <t>2319.HK</t>
+        </is>
+      </c>
+      <c r="G28" s="12" t="inlineStr">
+        <is>
+          <t>6,226,602,000</t>
+        </is>
+      </c>
+      <c r="H28" s="12" t="inlineStr">
+        <is>
+          <t>5,432,677,000</t>
+        </is>
+      </c>
+      <c r="I28" s="12" t="inlineStr">
+        <is>
+          <t>6,350,671,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>Want Want China Holdings Ltd</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>0151.HK</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Dairy</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>0151.HK</t>
+        </is>
+      </c>
+      <c r="G29" s="8" t="inlineStr">
+        <is>
+          <t>5,249,468,000</t>
+        </is>
+      </c>
+      <c r="H29" s="8" t="inlineStr">
+        <is>
+          <t>4,564,112,000</t>
+        </is>
+      </c>
+      <c r="I29" s="8" t="inlineStr">
+        <is>
+          <t>5,444,370,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>China Feihe Ltd</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="inlineStr">
+        <is>
+          <t>6186.HK</t>
+        </is>
+      </c>
+      <c r="C30" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D30" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Dairy</t>
+        </is>
+      </c>
+      <c r="E30" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F30" s="12" t="inlineStr">
+        <is>
+          <t>6186.HK</t>
+        </is>
+      </c>
+      <c r="G30" s="12" t="inlineStr">
+        <is>
+          <t>5,180,087,000</t>
+        </is>
+      </c>
+      <c r="H30" s="12" t="inlineStr">
+        <is>
+          <t>6,709,924,000</t>
+        </is>
+      </c>
+      <c r="I30" s="12" t="inlineStr">
+        <is>
+          <t>5,590,630,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>Glanbia PLC</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>GL9.I</t>
+        </is>
+      </c>
+      <c r="C31" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Dairy</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>GL9.I</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>343,000,000</t>
+        </is>
+      </c>
+      <c r="H31" s="8" t="inlineStr">
+        <is>
+          <t>300,300,000</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>395,100,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>McCormick &amp; Company Inc</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="inlineStr">
+        <is>
+          <t>MKC</t>
+        </is>
+      </c>
+      <c r="C32" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D32" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Spices/Sauces/Soups/Noodles</t>
+        </is>
+      </c>
+      <c r="E32" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F32" s="12" t="inlineStr">
+        <is>
+          <t>MKC</t>
+        </is>
+      </c>
+      <c r="G32" s="12" t="inlineStr">
+        <is>
+          <t>1,024,200,000</t>
+        </is>
+      </c>
+      <c r="H32" s="12" t="inlineStr">
+        <is>
+          <t>917,400,000</t>
+        </is>
+      </c>
+      <c r="I32" s="12" t="inlineStr">
+        <is>
+          <t>1,069,800,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>Campbell Soup Co</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>CPB.O</t>
+        </is>
+      </c>
+      <c r="C33" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Spices/Sauces/Soups/Noodles</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="inlineStr">
+        <is>
+          <t>CPB.O</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>1,396,000,000</t>
+        </is>
+      </c>
+      <c r="H33" s="8" t="inlineStr">
+        <is>
+          <t>1,194,000,000</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>1,287,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="9" t="inlineStr">
+        <is>
+          <t>Kikkoman Corp</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="inlineStr">
+        <is>
+          <t>2801.T</t>
+        </is>
+      </c>
+      <c r="C34" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D34" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Spices/Sauces/Soups/Noodles</t>
+        </is>
+      </c>
+      <c r="E34" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F34" s="12" t="inlineStr">
+        <is>
+          <t>2801.T</t>
+        </is>
+      </c>
+      <c r="G34" s="12" t="inlineStr">
+        <is>
+          <t>70,107,000,000</t>
+        </is>
+      </c>
+      <c r="H34" s="12" t="inlineStr">
+        <is>
+          <t>58,277,000,000</t>
+        </is>
+      </c>
+      <c r="I34" s="12" t="inlineStr">
+        <is>
+          <t>77,120,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>Nissin Foods Holdings Co Ltd</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>2897.T</t>
+        </is>
+      </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Spices/Sauces/Soups/Noodles</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="inlineStr">
+        <is>
+          <t>2897.T</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>60,779,000,000</t>
+        </is>
+      </c>
+      <c r="H35" s="8" t="inlineStr">
+        <is>
+          <t>47,319,000,000</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>63,962,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>Tate &amp; Lyle PLC</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="inlineStr">
+        <is>
+          <t>TATE.L</t>
+        </is>
+      </c>
+      <c r="C36" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D36" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Spices/Sauces/Soups/Noodles</t>
+        </is>
+      </c>
+      <c r="E36" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F36" s="12" t="inlineStr">
+        <is>
+          <t>TATE.L</t>
+        </is>
+      </c>
+      <c r="G36" s="12" t="inlineStr">
+        <is>
+          <t>234,000,000</t>
+        </is>
+      </c>
+      <c r="H36" s="12" t="inlineStr">
+        <is>
+          <t>226,000,000</t>
+        </is>
+      </c>
+      <c r="I36" s="12" t="inlineStr">
+        <is>
+          <t>240,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>Toyo Suisan Kaisha Ltd</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>2875.T</t>
+        </is>
+      </c>
+      <c r="C37" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D37" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Spices/Sauces/Soups/Noodles</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>2875.T</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>66,696,000,000</t>
+        </is>
+      </c>
+      <c r="H37" s="8" t="inlineStr">
+        <is>
+          <t>40,330,000,000</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>75,488,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Mowi ASA</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="inlineStr">
+        <is>
+          <t>MOWI.OL</t>
+        </is>
+      </c>
+      <c r="C38" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D38" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Fish</t>
+        </is>
+      </c>
+      <c r="E38" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F38" s="12" t="inlineStr">
+        <is>
+          <t>MOWI.OL</t>
+        </is>
+      </c>
+      <c r="G38" s="12" t="inlineStr">
+        <is>
+          <t>943,600,000</t>
+        </is>
+      </c>
+      <c r="H38" s="12" t="inlineStr">
+        <is>
+          <t>954,100,000</t>
+        </is>
+      </c>
+      <c r="I38" s="12" t="inlineStr">
+        <is>
+          <t>774,200,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>SalMar ASA</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>SALM.OL</t>
+        </is>
+      </c>
+      <c r="C39" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D39" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Fish</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>SALM.OL</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>6,952,442,000</t>
+        </is>
+      </c>
+      <c r="H39" s="8" t="inlineStr">
+        <is>
+          <t>4,774,800,000</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>5,369,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Leroy Seafood Group ASA</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="inlineStr">
+        <is>
+          <t>LSG.OL</t>
+        </is>
+      </c>
+      <c r="C40" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D40" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Fish</t>
+        </is>
+      </c>
+      <c r="E40" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F40" s="12" t="inlineStr">
+        <is>
+          <t>LSG.OL</t>
+        </is>
+      </c>
+      <c r="G40" s="12" t="inlineStr">
+        <is>
+          <t>3,186,888,000</t>
+        </is>
+      </c>
+      <c r="H40" s="12" t="inlineStr">
+        <is>
+          <t>3,188,499,000</t>
+        </is>
+      </c>
+      <c r="I40" s="12" t="inlineStr">
+        <is>
+          <t>2,793,362,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>Cal-Maine Foods Inc</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>CALM.O</t>
+        </is>
+      </c>
+      <c r="C41" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D41" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Fish</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="inlineStr">
+        <is>
+          <t>CALM.O</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>308,594,000</t>
+        </is>
+      </c>
+      <c r="H41" s="8" t="inlineStr">
+        <is>
+          <t>964,250,000</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>1,536,436,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>Lamb Weston Holdings Inc</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="C42" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D42" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Meat</t>
+        </is>
+      </c>
+      <c r="E42" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F42" s="12" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="G42" s="12" t="inlineStr">
+        <is>
+          <t>1,105,600,000</t>
+        </is>
+      </c>
+      <c r="H42" s="12" t="inlineStr">
+        <is>
+          <t>867,600,000</t>
+        </is>
+      </c>
+      <c r="I42" s="12" t="inlineStr">
+        <is>
+          <t>824,800,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>Bell Food Group AG</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>BELL.S</t>
+        </is>
+      </c>
+      <c r="C43" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D43" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Meat</t>
+        </is>
+      </c>
+      <c r="E43" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="inlineStr">
+        <is>
+          <t>BELL.S</t>
+        </is>
+      </c>
+      <c r="G43" s="8" t="inlineStr">
+        <is>
+          <t>164,700,000</t>
+        </is>
+      </c>
+      <c r="H43" s="8" t="inlineStr">
+        <is>
+          <t>162,900,000</t>
+        </is>
+      </c>
+      <c r="I43" s="8" t="inlineStr">
+        <is>
+          <t>166,900,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Tyson Foods Inc</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>TSN</t>
+        </is>
+      </c>
+      <c r="C44" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D44" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Meat</t>
+        </is>
+      </c>
+      <c r="E44" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F44" s="12" t="inlineStr">
+        <is>
+          <t>TSN</t>
+        </is>
+      </c>
+      <c r="G44" s="12" t="inlineStr">
+        <is>
+          <t>815,000,000</t>
+        </is>
+      </c>
+      <c r="H44" s="12" t="inlineStr">
+        <is>
+          <t>4,448,000,000</t>
+        </is>
+      </c>
+      <c r="I44" s="12" t="inlineStr">
+        <is>
+          <t>1,718,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>Hormel Foods Corp</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>HRL</t>
+        </is>
+      </c>
+      <c r="C45" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D45" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Meat</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>HRL</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>1,057,675,000</t>
+        </is>
+      </c>
+      <c r="H45" s="8" t="inlineStr">
+        <is>
+          <t>1,285,422,000</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="inlineStr">
+        <is>
+          <t>1,016,844,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>Orior AG</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="inlineStr">
+        <is>
+          <t>ORON.S</t>
+        </is>
+      </c>
+      <c r="C46" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D46" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Meat</t>
+        </is>
+      </c>
+      <c r="E46" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F46" s="12" t="inlineStr">
+        <is>
+          <t>ORON.S</t>
+        </is>
+      </c>
+      <c r="G46" s="12" t="inlineStr">
+        <is>
+          <t>26,094,000</t>
+        </is>
+      </c>
+      <c r="H46" s="12" t="inlineStr">
+        <is>
+          <t>37,471,000</t>
+        </is>
+      </c>
+      <c r="I46" s="14" t="inlineStr">
+        <is>
+          <t>-4971000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>NH Foods Ltd</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>2282.T</t>
+        </is>
+      </c>
+      <c r="C47" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D47" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Meat</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t>2282.T</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>28,436,000,000</t>
+        </is>
+      </c>
+      <c r="H47" s="8" t="inlineStr">
+        <is>
+          <t>9,925,000,000</t>
+        </is>
+      </c>
+      <c r="I47" s="8" t="inlineStr">
+        <is>
+          <t>38,792,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>Nichirei Corp</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="inlineStr">
+        <is>
+          <t>2871.T</t>
+        </is>
+      </c>
+      <c r="C48" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D48" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Meat</t>
+        </is>
+      </c>
+      <c r="E48" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F48" s="12" t="inlineStr">
+        <is>
+          <t>2871.T</t>
+        </is>
+      </c>
+      <c r="G48" s="12" t="inlineStr">
+        <is>
+          <t>36,911,000,000</t>
+        </is>
+      </c>
+      <c r="H48" s="12" t="inlineStr">
+        <is>
+          <t>32,935,000,000</t>
+        </is>
+      </c>
+      <c r="I48" s="12" t="inlineStr">
+        <is>
+          <t>38,315,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>Pilgrims Pride Corp</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>PPC.O</t>
+        </is>
+      </c>
+      <c r="C49" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D49" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Meat</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t>PPC.O</t>
+        </is>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>625,055,000</t>
+        </is>
+      </c>
+      <c r="H49" s="8" t="inlineStr">
+        <is>
+          <t>1,207,215,000</t>
+        </is>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>1,793,485,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1">
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>Maple Leaf Foods Inc</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="inlineStr">
+        <is>
+          <t>MFI.TO</t>
+        </is>
+      </c>
+      <c r="C50" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D50" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Meat</t>
+        </is>
+      </c>
+      <c r="E50" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F50" s="12" t="inlineStr">
+        <is>
+          <t>MFI.TO</t>
+        </is>
+      </c>
+      <c r="G50" s="12" t="inlineStr">
+        <is>
+          <t>53,555,000</t>
+        </is>
+      </c>
+      <c r="H50" s="14" t="inlineStr">
+        <is>
+          <t>-6833000.00</t>
+        </is>
+      </c>
+      <c r="I50" s="12" t="inlineStr">
+        <is>
+          <t>259,791,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>Nomad Foods Ltd</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>NOMD.K</t>
+        </is>
+      </c>
+      <c r="C51" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D51" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Frozen Food</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="inlineStr">
+        <is>
+          <t>NOMD.K</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>414,900,000</t>
+        </is>
+      </c>
+      <c r="H51" s="8" t="inlineStr">
+        <is>
+          <t>427,200,000</t>
+        </is>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>457,900,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1">
+      <c r="A52" s="9" t="inlineStr">
+        <is>
+          <t>P/F Bakkafrost</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="inlineStr">
+        <is>
+          <t>BAKKA.OL</t>
+        </is>
+      </c>
+      <c r="C52" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D52" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Frozen Food</t>
+        </is>
+      </c>
+      <c r="E52" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F52" s="12" t="inlineStr">
+        <is>
+          <t>BAKKA.OL</t>
+        </is>
+      </c>
+      <c r="G52" s="12" t="inlineStr">
+        <is>
+          <t>1,391,478,000</t>
+        </is>
+      </c>
+      <c r="H52" s="12" t="inlineStr">
+        <is>
+          <t>1,488,013,000</t>
+        </is>
+      </c>
+      <c r="I52" s="12" t="inlineStr">
+        <is>
+          <t>1,328,028,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>Orkla ASA</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>ORK.OL</t>
+        </is>
+      </c>
+      <c r="C53" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D53" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Frozen Food</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>ORK.OL</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>6,942,000,000</t>
+        </is>
+      </c>
+      <c r="H53" s="8" t="inlineStr">
+        <is>
+          <t>7,464,000,000</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>7,967,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>JDE Peets NV</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="inlineStr">
+        <is>
+          <t>JDEP.AS</t>
+        </is>
+      </c>
+      <c r="C54" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D54" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Coffee</t>
+        </is>
+      </c>
+      <c r="E54" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F54" s="12" t="inlineStr">
+        <is>
+          <t>JDEP.AS</t>
+        </is>
+      </c>
+      <c r="G54" s="12" t="inlineStr">
+        <is>
+          <t>974,000,000</t>
+        </is>
+      </c>
+      <c r="H54" s="12" t="inlineStr">
+        <is>
+          <t>963,000,000</t>
+        </is>
+      </c>
+      <c r="I54" s="12" t="inlineStr">
+        <is>
+          <t>1,204,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>Beyond Meat Inc</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>BYND.O</t>
+        </is>
+      </c>
+      <c r="C55" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D55" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Vegatarian / Vegan</t>
+        </is>
+      </c>
+      <c r="E55" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>BYND.O</t>
+        </is>
+      </c>
+      <c r="G55" s="13" t="inlineStr">
+        <is>
+          <t>-342529000.00</t>
+        </is>
+      </c>
+      <c r="H55" s="13" t="inlineStr">
+        <is>
+          <t>-325512000.00</t>
+        </is>
+      </c>
+      <c r="I55" s="13" t="inlineStr">
+        <is>
+          <t>-148624000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1">
+      <c r="A56" s="9" t="inlineStr">
+        <is>
+          <t>Calbee Inc</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="inlineStr">
+        <is>
+          <t>2229.T</t>
+        </is>
+      </c>
+      <c r="C56" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D56" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Snacks</t>
+        </is>
+      </c>
+      <c r="E56" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F56" s="12" t="inlineStr">
+        <is>
+          <t>2229.T</t>
+        </is>
+      </c>
+      <c r="G56" s="12" t="inlineStr">
+        <is>
+          <t>27,158,000,000</t>
+        </is>
+      </c>
+      <c r="H56" s="12" t="inlineStr">
+        <is>
+          <t>22,121,000,000</t>
+        </is>
+      </c>
+      <c r="I56" s="12" t="inlineStr">
+        <is>
+          <t>28,994,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>TreeHouse Foods Inc</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>THS</t>
+        </is>
+      </c>
+      <c r="C57" s="7" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D57" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Snacks</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="inlineStr">
+        <is>
+          <t>THS</t>
+        </is>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>225,400,000</t>
+        </is>
+      </c>
+      <c r="H57" s="8" t="inlineStr">
+        <is>
+          <t>74,100,000</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>201,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1">
+      <c r="A58" s="9" t="inlineStr">
+        <is>
+          <t>Freshpet Inc</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="inlineStr">
+        <is>
+          <t>FRPT.O</t>
+        </is>
+      </c>
+      <c r="C58" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D58" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Pet-Food</t>
+        </is>
+      </c>
+      <c r="E58" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 1</t>
+        </is>
+      </c>
+      <c r="F58" s="12" t="inlineStr">
+        <is>
+          <t>FRPT.O</t>
+        </is>
+      </c>
+      <c r="G58" s="14" t="inlineStr">
+        <is>
+          <t>-23735000.00</t>
+        </is>
+      </c>
+      <c r="H58" s="14" t="inlineStr">
+        <is>
+          <t>-12090000.00</t>
+        </is>
+      </c>
+      <c r="I58" s="12" t="inlineStr">
+        <is>
+          <t>39,283,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>PepsiCo Inc</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>PEP.O</t>
+        </is>
+      </c>
+      <c r="C59" s="7" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D59" s="7" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 2</t>
+        </is>
+      </c>
+      <c r="F59" s="8" t="inlineStr">
+        <is>
+          <t>PEP.O</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>13,721,000,000</t>
+        </is>
+      </c>
+      <c r="H59" s="8" t="inlineStr">
+        <is>
+          <t>12,585,000,000</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>14,724,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1">
+      <c r="A60" s="9" t="inlineStr">
+        <is>
+          <t>Keurig Dr Pepper Inc</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="inlineStr">
+        <is>
+          <t>KDP.O</t>
+        </is>
+      </c>
+      <c r="C60" s="11" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D60" s="11" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E60" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 2</t>
+        </is>
+      </c>
+      <c r="F60" s="12" t="inlineStr">
+        <is>
+          <t>KDP.O</t>
+        </is>
+      </c>
+      <c r="G60" s="12" t="inlineStr">
+        <is>
+          <t>3,194,000,000</t>
+        </is>
+      </c>
+      <c r="H60" s="12" t="inlineStr">
+        <is>
+          <t>2,983,000,000</t>
+        </is>
+      </c>
+      <c r="I60" s="12" t="inlineStr">
+        <is>
+          <t>3,400,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>Fomento Economico Mexicano SAB de CV</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>FEMSAUBD.MX</t>
+        </is>
+      </c>
+      <c r="C61" s="7" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D61" s="7" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 2</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>FEMSAUBD.MX</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>56,063,000,000</t>
+        </is>
+      </c>
+      <c r="H61" s="8" t="inlineStr">
+        <is>
+          <t>63,467,000,000</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>68,953,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1">
+      <c r="A62" s="9" t="inlineStr">
+        <is>
+          <t>Coca-Cola Europacific Partners PLC</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="inlineStr">
+        <is>
+          <t>CCEP.O</t>
+        </is>
+      </c>
+      <c r="C62" s="11" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D62" s="11" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E62" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 2</t>
+        </is>
+      </c>
+      <c r="F62" s="12" t="inlineStr">
+        <is>
+          <t>CCEP.O</t>
+        </is>
+      </c>
+      <c r="G62" s="12" t="inlineStr">
+        <is>
+          <t>2,422,000,000</t>
+        </is>
+      </c>
+      <c r="H62" s="12" t="inlineStr">
+        <is>
+          <t>2,324,000,000</t>
+        </is>
+      </c>
+      <c r="I62" s="12" t="inlineStr">
+        <is>
+          <t>2,614,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>Monster Beverage Corp</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>MNST.O</t>
+        </is>
+      </c>
+      <c r="C63" s="7" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D63" s="7" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 2</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>MNST.O</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>1,992,055,000</t>
+        </is>
+      </c>
+      <c r="H63" s="8" t="inlineStr">
+        <is>
+          <t>1,586,921,000</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>2,069,094,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1">
+      <c r="A64" s="9" t="inlineStr">
+        <is>
+          <t>Arca Continental SAB de CV</t>
+        </is>
+      </c>
+      <c r="B64" s="10" t="inlineStr">
+        <is>
+          <t>AC.MX</t>
+        </is>
+      </c>
+      <c r="C64" s="11" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D64" s="11" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E64" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 2</t>
+        </is>
+      </c>
+      <c r="F64" s="12" t="inlineStr">
+        <is>
+          <t>AC.MX</t>
+        </is>
+      </c>
+      <c r="G64" s="12" t="inlineStr">
+        <is>
+          <t>35,112,442,000</t>
+        </is>
+      </c>
+      <c r="H64" s="12" t="inlineStr">
+        <is>
+          <t>30,691,220,000</t>
+        </is>
+      </c>
+      <c r="I64" s="12" t="inlineStr">
+        <is>
+          <t>39,190,682,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>Coca Cola HBC AG</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>CCH.L</t>
+        </is>
+      </c>
+      <c r="C65" s="7" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D65" s="7" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 2</t>
+        </is>
+      </c>
+      <c r="F65" s="8" t="inlineStr">
+        <is>
+          <t>CCH.L</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>1,084,900,000</t>
+        </is>
+      </c>
+      <c r="H65" s="8" t="inlineStr">
+        <is>
+          <t>902,800,000</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>1,194,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1">
+      <c r="A66" s="9" t="inlineStr">
+        <is>
+          <t>Suntory Beverage &amp; Food Ltd</t>
+        </is>
+      </c>
+      <c r="B66" s="10" t="inlineStr">
+        <is>
+          <t>2587.T</t>
+        </is>
+      </c>
+      <c r="C66" s="11" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D66" s="11" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E66" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 2</t>
+        </is>
+      </c>
+      <c r="F66" s="12" t="inlineStr">
+        <is>
+          <t>2587.T</t>
+        </is>
+      </c>
+      <c r="G66" s="12" t="inlineStr">
+        <is>
+          <t>145,701,000,000</t>
+        </is>
+      </c>
+      <c r="H66" s="12" t="inlineStr">
+        <is>
+          <t>133,783,000,000</t>
+        </is>
+      </c>
+      <c r="I66" s="12" t="inlineStr">
+        <is>
+          <t>169,975,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>Britvic PLC</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>BVIC.L</t>
+        </is>
+      </c>
+      <c r="C67" s="7" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D67" s="7" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 2</t>
+        </is>
+      </c>
+      <c r="F67" s="8" t="inlineStr">
+        <is>
+          <t>BVIC.L</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>216,800,000</t>
+        </is>
+      </c>
+      <c r="H67" s="8" t="inlineStr">
+        <is>
+          <t>197,700,000</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>239,800,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1">
+      <c r="A68" s="9" t="inlineStr">
+        <is>
+          <t>Primo Water Corp</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="inlineStr">
+        <is>
+          <t>PRMW.TO</t>
+        </is>
+      </c>
+      <c r="C68" s="11" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D68" s="11" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E68" s="12" t="inlineStr">
+        <is>
+          <t>Zeile 2</t>
+        </is>
+      </c>
+      <c r="F68" s="12" t="inlineStr">
+        <is>
+          <t>PRMW.TO</t>
+        </is>
+      </c>
+      <c r="G68" s="12" t="inlineStr">
+        <is>
+          <t>136,000,000</t>
+        </is>
+      </c>
+      <c r="H68" s="12" t="inlineStr">
+        <is>
+          <t>121,800,000</t>
+        </is>
+      </c>
+      <c r="I68" s="12" t="inlineStr">
+        <is>
+          <t>161,000,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>National Beverage Corp</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>FIZZ.OQ</t>
+        </is>
+      </c>
+      <c r="C69" s="7" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D69" s="7" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E69" s="8" t="inlineStr">
+        <is>
+          <t>Zeile 2</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>FIZZ.OQ</t>
+        </is>
+      </c>
+      <c r="G69" s="8" t="inlineStr">
+        <is>
+          <t>218,510,000</t>
+        </is>
+      </c>
+      <c r="H69" s="8" t="inlineStr">
+        <is>
+          <t>186,684,000</t>
+        </is>
+      </c>
+      <c r="I69" s="8" t="inlineStr">
+        <is>
+          <t>235,459,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1">
+      <c r="A70" s="9" t="inlineStr">
+        <is>
+          <t>💼 Ø Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="B70" s="10" t="inlineStr"/>
+      <c r="C70" s="11" t="inlineStr">
+        <is>
+          <t>Packaged Foods &amp; Meats</t>
+        </is>
+      </c>
+      <c r="D70" s="11" t="inlineStr"/>
+      <c r="E70" s="12" t="inlineStr">
+        <is>
           <t>Durchschnitt (Branche)</t>
         </is>
       </c>
-      <c r="F23" s="9" t="n">
-        <v>30.54280176341524</v>
-      </c>
-      <c r="G23" s="8" t="inlineStr"/>
-      <c r="H23" s="8" t="inlineStr"/>
-      <c r="I23" s="8" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="10" t="inlineStr">
+      <c r="F70" s="12" t="inlineStr"/>
+      <c r="G70" s="12" t="inlineStr"/>
+      <c r="H70" s="12" t="inlineStr"/>
+      <c r="I70" s="12" t="inlineStr"/>
+    </row>
+    <row r="71" ht="20" customHeight="1">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>💼 Ø Soft Drinks</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr"/>
+      <c r="C71" s="7" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D71" s="7" t="inlineStr"/>
+      <c r="E71" s="8" t="inlineStr">
+        <is>
+          <t>Durchschnitt (Branche)</t>
+        </is>
+      </c>
+      <c r="F71" s="8" t="inlineStr"/>
+      <c r="G71" s="8" t="inlineStr"/>
+      <c r="H71" s="8" t="inlineStr"/>
+      <c r="I71" s="8" t="inlineStr"/>
+    </row>
+    <row r="72" ht="20" customHeight="1">
+      <c r="A72" s="9" t="inlineStr">
+        <is>
+          <t>🎯 Ø Beverages</t>
+        </is>
+      </c>
+      <c r="B72" s="10" t="inlineStr"/>
+      <c r="C72" s="11" t="inlineStr"/>
+      <c r="D72" s="11" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E72" s="12" t="inlineStr">
+        <is>
+          <t>Durchschnitt</t>
+        </is>
+      </c>
+      <c r="F72" s="12" t="inlineStr"/>
+      <c r="G72" s="12" t="inlineStr"/>
+      <c r="H72" s="12" t="inlineStr"/>
+      <c r="I72" s="12" t="inlineStr"/>
+    </row>
+    <row r="73" ht="20" customHeight="1">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>🎯 Ø Diversified</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr"/>
+      <c r="C73" s="7" t="inlineStr"/>
+      <c r="D73" s="7" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="E73" s="8" t="inlineStr">
+        <is>
+          <t>Durchschnitt</t>
+        </is>
+      </c>
+      <c r="F73" s="8" t="inlineStr"/>
+      <c r="G73" s="8" t="inlineStr"/>
+      <c r="H73" s="8" t="inlineStr"/>
+      <c r="I73" s="8" t="inlineStr"/>
+    </row>
+    <row r="74" ht="20" customHeight="1">
+      <c r="A74" s="9" t="inlineStr">
+        <is>
+          <t>🎯 Ø Focus: Dairy</t>
+        </is>
+      </c>
+      <c r="B74" s="10" t="inlineStr"/>
+      <c r="C74" s="11" t="inlineStr"/>
+      <c r="D74" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Dairy</t>
+        </is>
+      </c>
+      <c r="E74" s="12" t="inlineStr">
+        <is>
+          <t>Durchschnitt</t>
+        </is>
+      </c>
+      <c r="F74" s="12" t="inlineStr"/>
+      <c r="G74" s="12" t="inlineStr"/>
+      <c r="H74" s="12" t="inlineStr"/>
+      <c r="I74" s="12" t="inlineStr"/>
+    </row>
+    <row r="75" ht="20" customHeight="1">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>🎯 Ø Focus: Fish</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr"/>
+      <c r="C75" s="7" t="inlineStr"/>
+      <c r="D75" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Fish</t>
+        </is>
+      </c>
+      <c r="E75" s="8" t="inlineStr">
+        <is>
+          <t>Durchschnitt</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr"/>
+      <c r="G75" s="8" t="inlineStr"/>
+      <c r="H75" s="8" t="inlineStr"/>
+      <c r="I75" s="8" t="inlineStr"/>
+    </row>
+    <row r="76" ht="20" customHeight="1">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>🎯 Ø Focus: Frozen Food</t>
+        </is>
+      </c>
+      <c r="B76" s="10" t="inlineStr"/>
+      <c r="C76" s="11" t="inlineStr"/>
+      <c r="D76" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Frozen Food</t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>Durchschnitt</t>
+        </is>
+      </c>
+      <c r="F76" s="12" t="inlineStr"/>
+      <c r="G76" s="12" t="inlineStr"/>
+      <c r="H76" s="12" t="inlineStr"/>
+      <c r="I76" s="12" t="inlineStr"/>
+    </row>
+    <row r="77" ht="20" customHeight="1">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>🎯 Ø Focus: Meat</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr"/>
+      <c r="C77" s="7" t="inlineStr"/>
+      <c r="D77" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Meat</t>
+        </is>
+      </c>
+      <c r="E77" s="8" t="inlineStr">
+        <is>
+          <t>Durchschnitt</t>
+        </is>
+      </c>
+      <c r="F77" s="8" t="inlineStr"/>
+      <c r="G77" s="8" t="inlineStr"/>
+      <c r="H77" s="8" t="inlineStr"/>
+      <c r="I77" s="8" t="inlineStr"/>
+    </row>
+    <row r="78" ht="20" customHeight="1">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>🎯 Ø Focus: Snacks</t>
+        </is>
+      </c>
+      <c r="B78" s="10" t="inlineStr"/>
+      <c r="C78" s="11" t="inlineStr"/>
+      <c r="D78" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Snacks</t>
+        </is>
+      </c>
+      <c r="E78" s="12" t="inlineStr">
+        <is>
+          <t>Durchschnitt</t>
+        </is>
+      </c>
+      <c r="F78" s="12" t="inlineStr"/>
+      <c r="G78" s="12" t="inlineStr"/>
+      <c r="H78" s="12" t="inlineStr"/>
+      <c r="I78" s="12" t="inlineStr"/>
+    </row>
+    <row r="79" ht="20" customHeight="1">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>🎯 Ø Focus: Spices/Sauces/Soups/Noodles</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr"/>
+      <c r="C79" s="7" t="inlineStr"/>
+      <c r="D79" s="7" t="inlineStr">
+        <is>
+          <t>Focus: Spices/Sauces/Soups/Noodles</t>
+        </is>
+      </c>
+      <c r="E79" s="8" t="inlineStr">
+        <is>
+          <t>Durchschnitt</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="inlineStr"/>
+      <c r="G79" s="8" t="inlineStr"/>
+      <c r="H79" s="8" t="inlineStr"/>
+      <c r="I79" s="8" t="inlineStr"/>
+    </row>
+    <row r="80" ht="20" customHeight="1">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>🎯 Ø Focus: Sweets/Cereals/Breakfast</t>
+        </is>
+      </c>
+      <c r="B80" s="10" t="inlineStr"/>
+      <c r="C80" s="11" t="inlineStr"/>
+      <c r="D80" s="11" t="inlineStr">
+        <is>
+          <t>Focus: Sweets/Cereals/Breakfast</t>
+        </is>
+      </c>
+      <c r="E80" s="12" t="inlineStr">
+        <is>
+          <t>Durchschnitt</t>
+        </is>
+      </c>
+      <c r="F80" s="12" t="inlineStr"/>
+      <c r="G80" s="12" t="inlineStr"/>
+      <c r="H80" s="12" t="inlineStr"/>
+      <c r="I80" s="12" t="inlineStr"/>
+    </row>
+    <row r="81" ht="20" customHeight="1">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>🏭 Ø Consumer Discretionary Sector</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr"/>
+      <c r="C81" s="7" t="inlineStr"/>
+      <c r="D81" s="7" t="inlineStr"/>
+      <c r="E81" s="8" t="inlineStr">
+        <is>
+          <t>Durchschnitt (GICS Sector 25)</t>
+        </is>
+      </c>
+      <c r="F81" s="8" t="inlineStr"/>
+      <c r="G81" s="13" t="n">
+        <v>1087428230.5</v>
+      </c>
+      <c r="H81" s="13" t="n">
+        <v>927691580.61</v>
+      </c>
+      <c r="I81" s="13" t="n">
+        <v>1163849161.3</v>
+      </c>
+    </row>
+    <row r="82" ht="20" customHeight="1">
+      <c r="A82" s="9" t="inlineStr">
+        <is>
+          <t>🏭 Ø Materials Sector</t>
+        </is>
+      </c>
+      <c r="B82" s="10" t="inlineStr"/>
+      <c r="C82" s="11" t="inlineStr"/>
+      <c r="D82" s="11" t="inlineStr"/>
+      <c r="E82" s="12" t="inlineStr">
+        <is>
+          <t>Durchschnitt (GICS Sector 15)</t>
+        </is>
+      </c>
+      <c r="F82" s="12" t="inlineStr"/>
+      <c r="G82" s="14" t="n">
+        <v>1072795013.57</v>
+      </c>
+      <c r="H82" s="14" t="n">
+        <v>1307361285.16</v>
+      </c>
+      <c r="I82" s="14" t="n">
+        <v>1070230084.96</v>
+      </c>
+    </row>
+    <row r="83" ht="20" customHeight="1">
+      <c r="A83" s="5" t="inlineStr">
         <is>
           <t>🏭 Ø Health Care Sector</t>
         </is>
       </c>
-      <c r="B24" s="11" t="inlineStr"/>
-      <c r="C24" s="12" t="inlineStr"/>
-      <c r="D24" s="12" t="inlineStr"/>
-      <c r="E24" s="13" t="inlineStr">
+      <c r="B83" s="6" t="inlineStr"/>
+      <c r="C83" s="7" t="inlineStr"/>
+      <c r="D83" s="7" t="inlineStr"/>
+      <c r="E83" s="8" t="inlineStr">
         <is>
           <t>Durchschnitt (GICS Sector 35)</t>
         </is>
       </c>
-      <c r="F24" s="13" t="inlineStr"/>
-      <c r="G24" s="14" t="n">
+      <c r="F83" s="8" t="inlineStr"/>
+      <c r="G83" s="13" t="n">
         <v>312813159.13</v>
       </c>
-      <c r="H24" s="14" t="n">
+      <c r="H83" s="13" t="n">
         <v>372797218.72</v>
       </c>
-      <c r="I24" s="14" t="n">
-        <v>326126690.31</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="15" t="inlineStr">
-        <is>
-          <t>📅 Generated: 2025-08-15 09:12:25 | 📊 Companies: 20</t>
+      <c r="I83" s="13" t="n">
+        <v>325989041.71</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="inlineStr">
+        <is>
+          <t>🏭 Ø Information Technology Sector</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="inlineStr"/>
+      <c r="C84" s="11" t="inlineStr"/>
+      <c r="D84" s="11" t="inlineStr"/>
+      <c r="E84" s="12" t="inlineStr">
+        <is>
+          <t>Durchschnitt (GICS Sector 45)</t>
+        </is>
+      </c>
+      <c r="F84" s="12" t="inlineStr"/>
+      <c r="G84" s="14" t="n">
+        <v>590902573.12</v>
+      </c>
+      <c r="H84" s="14" t="n">
+        <v>755843060.27</v>
+      </c>
+      <c r="I84" s="14" t="n">
+        <v>620983918.53</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="15" t="inlineStr">
+        <is>
+          <t>📅 Generated: 2025-08-15 14:28:17 | 📊 Companies: 67</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A85:F85"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_data/output.xlsx
+++ b/excel_data/output.xlsx
@@ -552,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -4038,7 +4038,7 @@
       <c r="H80" s="12" t="inlineStr"/>
       <c r="I80" s="12" t="inlineStr"/>
     </row>
-    <row r="81" ht="20" customHeight="1">
+    <row r="81">
       <c r="A81" s="5" t="inlineStr">
         <is>
           <t>🏭 Ø Consumer Discretionary Sector</t>
@@ -4063,92 +4063,17 @@
         <v>1163849161.3</v>
       </c>
     </row>
-    <row r="82" ht="20" customHeight="1">
-      <c r="A82" s="9" t="inlineStr">
-        <is>
-          <t>🏭 Ø Materials Sector</t>
-        </is>
-      </c>
-      <c r="B82" s="10" t="inlineStr"/>
-      <c r="C82" s="11" t="inlineStr"/>
-      <c r="D82" s="11" t="inlineStr"/>
-      <c r="E82" s="12" t="inlineStr">
-        <is>
-          <t>Durchschnitt (GICS Sector 15)</t>
-        </is>
-      </c>
-      <c r="F82" s="12" t="inlineStr"/>
-      <c r="G82" s="14" t="n">
-        <v>1072795013.57</v>
-      </c>
-      <c r="H82" s="14" t="n">
-        <v>1307361285.16</v>
-      </c>
-      <c r="I82" s="14" t="n">
-        <v>1070230084.96</v>
-      </c>
-    </row>
-    <row r="83" ht="20" customHeight="1">
-      <c r="A83" s="5" t="inlineStr">
-        <is>
-          <t>🏭 Ø Health Care Sector</t>
-        </is>
-      </c>
-      <c r="B83" s="6" t="inlineStr"/>
-      <c r="C83" s="7" t="inlineStr"/>
-      <c r="D83" s="7" t="inlineStr"/>
-      <c r="E83" s="8" t="inlineStr">
-        <is>
-          <t>Durchschnitt (GICS Sector 35)</t>
-        </is>
-      </c>
-      <c r="F83" s="8" t="inlineStr"/>
-      <c r="G83" s="13" t="n">
-        <v>312813159.13</v>
-      </c>
-      <c r="H83" s="13" t="n">
-        <v>372797218.72</v>
-      </c>
-      <c r="I83" s="13" t="n">
-        <v>325989041.71</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="9" t="inlineStr">
-        <is>
-          <t>🏭 Ø Information Technology Sector</t>
-        </is>
-      </c>
-      <c r="B84" s="10" t="inlineStr"/>
-      <c r="C84" s="11" t="inlineStr"/>
-      <c r="D84" s="11" t="inlineStr"/>
-      <c r="E84" s="12" t="inlineStr">
-        <is>
-          <t>Durchschnitt (GICS Sector 45)</t>
-        </is>
-      </c>
-      <c r="F84" s="12" t="inlineStr"/>
-      <c r="G84" s="14" t="n">
-        <v>590902573.12</v>
-      </c>
-      <c r="H84" s="14" t="n">
-        <v>755843060.27</v>
-      </c>
-      <c r="I84" s="14" t="n">
-        <v>620983918.53</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="15" t="inlineStr">
-        <is>
-          <t>📅 Generated: 2025-08-15 14:28:17 | 📊 Companies: 67</t>
+    <row r="82">
+      <c r="A82" s="15" t="inlineStr">
+        <is>
+          <t>📅 Generated: 2025-08-15 15:07:33 | 📊 Companies: 67</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel_data/output.xlsx
+++ b/excel_data/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Focus-Durchschnitt</t>
   </si>
   <si>
-    <t>Sektor-Durchschnitt</t>
+    <t>GICS-Sektor-Durchschnitt</t>
   </si>
   <si>
     <t>Zeile 1</t>
@@ -183,10 +183,7 @@
     <t>Focus-Ø (11 Unternehmen)</t>
   </si>
   <si>
-    <t>Sektor-Ø (4 Unternehmen)</t>
-  </si>
-  <si>
-    <t>Sektor-Ø (11 Unternehmen)</t>
+    <t>GICS-Sektor-Ø (Refinitiv-Branchendurchschnitt)</t>
   </si>
   <si>
     <t>826,300,000</t>
@@ -733,13 +730,13 @@
         <v>38.1345</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -765,13 +762,13 @@
         <v>-13.7552</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -797,13 +794,13 @@
         <v>-23.5126</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -829,13 +826,13 @@
         <v>-10.3557</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -861,13 +858,13 @@
         <v>-2.4463</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -893,13 +890,13 @@
         <v>3.0822</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -925,13 +922,13 @@
         <v>10.3658</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -957,13 +954,13 @@
         <v>7.1215</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -989,13 +986,13 @@
         <v>3.3866</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1021,13 +1018,13 @@
         <v>22.8146</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1053,13 +1050,13 @@
         <v>24.0117</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1085,13 +1082,13 @@
         <v>-3.5507</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1114,13 +1111,13 @@
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1143,13 +1140,13 @@
         <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1175,16 +1172,16 @@
         <v>-4.898</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1195,7 +1192,7 @@
         <v>-4.415934615384616</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>6.654155555555556</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1220,7 @@
         <v>-2.37225</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1240,7 +1237,7 @@
         <v>6.654155555555556</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1250,8 +1247,17 @@
       <c r="F21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>1086058007.1146</v>
+      </c>
+      <c r="I21">
+        <v>925133996.1862</v>
+      </c>
+      <c r="J21">
+        <v>1165965874.6132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1259,7 +1265,16 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="H22">
+        <v>3056797240.6806</v>
+      </c>
+      <c r="I22">
+        <v>2926006346.5578</v>
+      </c>
+      <c r="J22">
+        <v>3528485841.2753</v>
       </c>
     </row>
   </sheetData>

--- a/excel_data/output.xlsx
+++ b/excel_data/output.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>RIC</t>
+  </si>
+  <si>
+    <t>GICS Sector</t>
   </si>
   <si>
     <t>Sub-Industry</t>
@@ -102,12 +105,12 @@
     <t>🎯 Ø Beverages</t>
   </si>
   <si>
+    <t>🏭 Ø Consumer Staples</t>
+  </si>
+  <si>
     <t>🏭 Ø Consumer Discretionary</t>
   </si>
   <si>
-    <t>🏭 Ø Consumer Staples</t>
-  </si>
-  <si>
     <t>RL.N</t>
   </si>
   <si>
@@ -151,6 +154,12 @@
   </si>
   <si>
     <t>FIZZ.OQ</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary</t>
+  </si>
+  <si>
+    <t>Consumer Staples</t>
   </si>
   <si>
     <t>Apparel, Accessories &amp; Luxury Goods</t>
@@ -667,13 +676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,577 +713,631 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2">
+        <v>38.1345</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>-13.7552</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4">
+        <v>-23.5126</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5">
+        <v>-10.3557</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6">
+        <v>-2.4463</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7">
+        <v>3.0822</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>10.3658</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9">
+        <v>7.1215</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>3.3866</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>22.8146</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12">
+        <v>24.0117</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13">
+        <v>-3.5507</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>-4.898</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17">
+        <v>-4.415934615384616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18">
+        <v>6.654155555555556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19">
+        <v>-2.37225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20">
+        <v>6.654155555555556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21">
+        <v>3056797240.6806</v>
+      </c>
+      <c r="J21">
+        <v>2926006346.5578</v>
+      </c>
+      <c r="K21">
+        <v>3528485833.8015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2">
-        <v>38.1345</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3">
-        <v>-13.7552</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4">
-        <v>-23.5126</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
         <v>58</v>
       </c>
-      <c r="I4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5">
-        <v>-10.3557</v>
-      </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6">
-        <v>-2.4463</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7">
-        <v>3.0822</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8">
-        <v>10.3658</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9">
-        <v>7.1215</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10">
-        <v>3.3866</v>
-      </c>
-      <c r="H10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11">
-        <v>22.8146</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12">
-        <v>24.0117</v>
-      </c>
-      <c r="H12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13">
-        <v>-3.5507</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16">
-        <v>-4.898</v>
-      </c>
-      <c r="H16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17">
-        <v>-4.415934615384616</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18">
-        <v>6.654155555555556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19">
-        <v>-2.37225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20">
-        <v>6.654155555555556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21">
+      <c r="I22">
         <v>1086058007.1146</v>
       </c>
-      <c r="I21">
+      <c r="J22">
         <v>925133996.1862</v>
       </c>
-      <c r="J21">
+      <c r="K22">
         <v>1165965874.6132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22">
-        <v>3056797240.6806</v>
-      </c>
-      <c r="I22">
-        <v>2926006346.5578</v>
-      </c>
-      <c r="J22">
-        <v>3528485841.2753</v>
       </c>
     </row>
   </sheetData>

--- a/excel_data/output.xlsx
+++ b/excel_data/output.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <name val="Calibri"/>
@@ -142,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -169,6 +171,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -184,10 +189,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -575,7 +580,7 @@
     <col width="26" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
     <col width="18" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -685,7 +690,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr"/>
+      <c r="H3" s="10" t="n">
+        <v>7.4109</v>
+      </c>
       <c r="I3" s="7" t="inlineStr">
         <is>
           <t>6,233,000,000</t>
@@ -698,48 +705,50 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>Kering SA</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>PRTP.PA</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E4" s="13" t="inlineStr">
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>High Luxury Segment</t>
         </is>
       </c>
-      <c r="F4" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="F4" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G4" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H4" s="12" t="inlineStr"/>
-      <c r="I4" s="12" t="inlineStr">
+      <c r="H4" s="16" t="n">
+        <v>-41.253</v>
+      </c>
+      <c r="I4" s="13" t="inlineStr">
         <is>
           <t>2,489,000,000</t>
         </is>
       </c>
-      <c r="J4" s="12" t="inlineStr">
+      <c r="J4" s="13" t="inlineStr">
         <is>
           <t>5,493,000,000</t>
         </is>
@@ -781,7 +790,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H5" s="7" t="inlineStr"/>
+      <c r="H5" s="10" t="n">
+        <v>23.5162</v>
+      </c>
       <c r="I5" s="7" t="inlineStr">
         <is>
           <t>1,295,743,000</t>
@@ -794,48 +805,50 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>Burberry Group PLC</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>BRBY.L</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D6" s="13" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E6" s="13" t="inlineStr">
+      <c r="E6" s="14" t="inlineStr">
         <is>
           <t>High Luxury Segment</t>
         </is>
       </c>
-      <c r="F6" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G6" s="14" t="inlineStr">
+      <c r="F6" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G6" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H6" s="12" t="inlineStr"/>
-      <c r="I6" s="12" t="inlineStr">
+      <c r="H6" s="16" t="n">
+        <v>-50.3389</v>
+      </c>
+      <c r="I6" s="13" t="inlineStr">
         <is>
           <t>57,000,000</t>
         </is>
       </c>
-      <c r="J6" s="12" t="inlineStr">
+      <c r="J6" s="13" t="inlineStr">
         <is>
           <t>639,000,000</t>
         </is>
@@ -877,7 +890,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H7" s="7" t="inlineStr"/>
+      <c r="H7" s="10" t="n">
+        <v>-46.601</v>
+      </c>
       <c r="I7" s="7" t="inlineStr">
         <is>
           <t>38,204,000</t>
@@ -890,48 +905,50 @@
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="10" t="inlineStr">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>Brunello Cucinelli SpA</t>
         </is>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>BCU.MI</t>
         </is>
       </c>
-      <c r="C8" s="12" t="inlineStr">
+      <c r="C8" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
+      <c r="D8" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="E8" s="14" t="inlineStr">
         <is>
           <t>High Luxury Segment</t>
         </is>
       </c>
-      <c r="F8" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G8" s="14" t="inlineStr">
+      <c r="F8" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G8" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H8" s="12" t="inlineStr"/>
-      <c r="I8" s="12" t="inlineStr">
+      <c r="H8" s="16" t="n">
+        <v>4.7968</v>
+      </c>
+      <c r="I8" s="13" t="inlineStr">
         <is>
           <t>211,541,000</t>
         </is>
       </c>
-      <c r="J8" s="12" t="inlineStr">
+      <c r="J8" s="13" t="inlineStr">
         <is>
           <t>134,498,000</t>
         </is>
@@ -973,7 +990,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="10" t="n">
+        <v>-30.8556</v>
+      </c>
       <c r="I9" s="7" t="inlineStr">
         <is>
           <t>184,020,000</t>
@@ -986,48 +1005,50 @@
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="10" t="inlineStr">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>Ralph Lauren Corp</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>RL.N</t>
         </is>
       </c>
-      <c r="C10" s="12" t="inlineStr">
+      <c r="C10" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
+      <c r="D10" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E10" s="13" t="inlineStr">
+      <c r="E10" s="14" t="inlineStr">
         <is>
           <t>Luxury Segment</t>
         </is>
       </c>
-      <c r="F10" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G10" s="14" t="inlineStr">
+      <c r="F10" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G10" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H10" s="12" t="inlineStr"/>
-      <c r="I10" s="12" t="inlineStr">
+      <c r="H10" s="16" t="n">
+        <v>38.1345</v>
+      </c>
+      <c r="I10" s="13" t="inlineStr">
         <is>
           <t>989,900,000</t>
         </is>
       </c>
-      <c r="J10" s="12" t="inlineStr">
+      <c r="J10" s="13" t="inlineStr">
         <is>
           <t>770,200,000</t>
         </is>
@@ -1069,7 +1090,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="H11" s="10" t="n">
+        <v>-13.7552</v>
+      </c>
       <c r="I11" s="7" t="inlineStr">
         <is>
           <t>162,100,000</t>
@@ -1082,48 +1105,50 @@
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="10" t="inlineStr">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>Swatch Group AG</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>UHR.S</t>
         </is>
       </c>
-      <c r="C12" s="12" t="inlineStr">
+      <c r="C12" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
+      <c r="D12" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E12" s="13" t="inlineStr">
+      <c r="E12" s="14" t="inlineStr">
         <is>
           <t>Luxury Segment</t>
         </is>
       </c>
-      <c r="F12" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G12" s="14" t="inlineStr">
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H12" s="12" t="inlineStr"/>
-      <c r="I12" s="12" t="inlineStr">
+      <c r="H12" s="16" t="n">
+        <v>-23.5126</v>
+      </c>
+      <c r="I12" s="13" t="inlineStr">
         <is>
           <t>306,000,000</t>
         </is>
       </c>
-      <c r="J12" s="12" t="inlineStr">
+      <c r="J12" s="13" t="inlineStr">
         <is>
           <t>1,159,000,000</t>
         </is>
@@ -1165,7 +1190,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="H13" s="10" t="n">
+        <v>-10.3557</v>
+      </c>
       <c r="I13" s="7" t="inlineStr">
         <is>
           <t>162,100,000</t>
@@ -1178,48 +1205,50 @@
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="10" t="inlineStr">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>Pandora A/S</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>PNDORA.CO</t>
         </is>
       </c>
-      <c r="C14" s="12" t="inlineStr">
+      <c r="C14" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
+      <c r="D14" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E14" s="13" t="inlineStr">
+      <c r="E14" s="14" t="inlineStr">
         <is>
           <t>Affordable Segment</t>
         </is>
       </c>
-      <c r="F14" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G14" s="14" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G14" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H14" s="12" t="inlineStr"/>
-      <c r="I14" s="12" t="inlineStr">
+      <c r="H14" s="16" t="n">
+        <v>10.4265</v>
+      </c>
+      <c r="I14" s="13" t="inlineStr">
         <is>
           <t>7,974,000,000</t>
         </is>
       </c>
-      <c r="J14" s="12" t="inlineStr">
+      <c r="J14" s="13" t="inlineStr">
         <is>
           <t>6,803,000,000</t>
         </is>
@@ -1261,7 +1290,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H15" s="10" t="n">
+        <v>-5.4254</v>
+      </c>
       <c r="I15" s="7" t="inlineStr">
         <is>
           <t>468,877,000</t>
@@ -1274,48 +1305,50 @@
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="10" t="inlineStr">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t>Potlatchdeltic Corp</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>PCH.N</t>
         </is>
       </c>
-      <c r="C16" s="12" t="inlineStr">
+      <c r="C16" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E16" s="13" t="inlineStr">
+      <c r="E16" s="14" t="inlineStr">
         <is>
           <t>Affordable Segment</t>
         </is>
       </c>
-      <c r="F16" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G16" s="14" t="inlineStr">
+      <c r="F16" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G16" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H16" s="12" t="inlineStr"/>
-      <c r="I16" s="12" t="inlineStr">
+      <c r="H16" s="16" t="n">
+        <v>-14.3466</v>
+      </c>
+      <c r="I16" s="13" t="inlineStr">
         <is>
           <t>120,603,000</t>
         </is>
       </c>
-      <c r="J16" s="12" t="inlineStr">
+      <c r="J16" s="13" t="inlineStr">
         <is>
           <t>477,455,000</t>
         </is>
@@ -1357,7 +1390,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="10" t="n">
+        <v>-36.8662</v>
+      </c>
       <c r="I17" s="7" t="inlineStr">
         <is>
           <t>407,625,000</t>
@@ -1370,48 +1405,50 @@
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="10" t="inlineStr">
+      <c r="A18" s="11" t="inlineStr">
         <is>
           <t>Levi Strauss &amp; Co</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr">
+      <c r="B18" s="12" t="inlineStr">
         <is>
           <t>LEVI.K</t>
         </is>
       </c>
-      <c r="C18" s="12" t="inlineStr">
+      <c r="C18" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="D18" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E18" s="13" t="inlineStr">
+      <c r="E18" s="14" t="inlineStr">
         <is>
           <t>Affordable Segment</t>
         </is>
       </c>
-      <c r="F18" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G18" s="14" t="inlineStr">
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G18" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H18" s="12" t="inlineStr"/>
-      <c r="I18" s="12" t="inlineStr">
+      <c r="H18" s="16" t="n">
+        <v>10.7013</v>
+      </c>
+      <c r="I18" s="13" t="inlineStr">
         <is>
           <t>649,900,000</t>
         </is>
       </c>
-      <c r="J18" s="12" t="inlineStr">
+      <c r="J18" s="13" t="inlineStr">
         <is>
           <t>737,300,000</t>
         </is>
@@ -1453,7 +1490,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H19" s="7" t="inlineStr"/>
+      <c r="H19" s="10" t="n">
+        <v>47.6951</v>
+      </c>
       <c r="I19" s="7" t="inlineStr">
         <is>
           <t>695,610,000</t>
@@ -1466,48 +1505,50 @@
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="A20" s="11" t="inlineStr">
         <is>
           <t>Guess? Inc</t>
         </is>
       </c>
-      <c r="B20" s="11" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr">
         <is>
           <t>GES.N</t>
         </is>
       </c>
-      <c r="C20" s="12" t="inlineStr">
+      <c r="C20" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D20" s="13" t="inlineStr">
+      <c r="D20" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E20" s="13" t="inlineStr">
+      <c r="E20" s="14" t="inlineStr">
         <is>
           <t>Affordable Segment</t>
         </is>
       </c>
-      <c r="F20" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G20" s="14" t="inlineStr">
+      <c r="F20" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G20" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H20" s="12" t="inlineStr"/>
-      <c r="I20" s="12" t="inlineStr">
+      <c r="H20" s="16" t="n">
+        <v>-13.0175</v>
+      </c>
+      <c r="I20" s="13" t="inlineStr">
         <is>
           <t>179,946,000</t>
         </is>
       </c>
-      <c r="J20" s="12" t="inlineStr">
+      <c r="J20" s="13" t="inlineStr">
         <is>
           <t>255,450,000</t>
         </is>
@@ -1549,7 +1590,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H21" s="7" t="inlineStr"/>
+      <c r="H21" s="10" t="n">
+        <v>-11.4033</v>
+      </c>
       <c r="I21" s="7" t="inlineStr">
         <is>
           <t>279,428,000</t>
@@ -1562,48 +1605,50 @@
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="10" t="inlineStr">
+      <c r="A22" s="11" t="inlineStr">
         <is>
           <t>HanesBrands Inc</t>
         </is>
       </c>
-      <c r="B22" s="11" t="inlineStr">
+      <c r="B22" s="12" t="inlineStr">
         <is>
           <t>HBI</t>
         </is>
       </c>
-      <c r="C22" s="12" t="inlineStr">
+      <c r="C22" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D22" s="13" t="inlineStr">
+      <c r="D22" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E22" s="13" t="inlineStr">
+      <c r="E22" s="14" t="inlineStr">
         <is>
           <t>Affordable Segment</t>
         </is>
       </c>
-      <c r="F22" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G22" s="14" t="inlineStr">
+      <c r="F22" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G22" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H22" s="12" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
+      <c r="H22" s="16" t="n">
+        <v>58.7444</v>
+      </c>
+      <c r="I22" s="13" t="inlineStr">
         <is>
           <t>415,171,000</t>
         </is>
       </c>
-      <c r="J22" s="12" t="inlineStr">
+      <c r="J22" s="13" t="inlineStr">
         <is>
           <t>322,013,000</t>
         </is>
@@ -1645,7 +1690,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H23" s="7" t="inlineStr"/>
+      <c r="H23" s="10" t="n">
+        <v>-25.0484</v>
+      </c>
       <c r="I23" s="7" t="inlineStr">
         <is>
           <t>624,200,000</t>
@@ -1658,48 +1705,50 @@
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="10" t="inlineStr">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>Kontoor Brands Inc</t>
         </is>
       </c>
-      <c r="B24" s="11" t="inlineStr">
+      <c r="B24" s="12" t="inlineStr">
         <is>
           <t>KTB</t>
         </is>
       </c>
-      <c r="C24" s="12" t="inlineStr">
+      <c r="C24" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D24" s="13" t="inlineStr">
+      <c r="D24" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E24" s="13" t="inlineStr">
+      <c r="E24" s="14" t="inlineStr">
         <is>
           <t>Affordable Segment</t>
         </is>
       </c>
-      <c r="F24" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G24" s="14" t="inlineStr">
+      <c r="F24" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G24" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H24" s="12" t="inlineStr"/>
-      <c r="I24" s="12" t="inlineStr">
+      <c r="H24" s="16" t="n">
+        <v>25.4406</v>
+      </c>
+      <c r="I24" s="13" t="inlineStr">
         <is>
           <t>382,289,000</t>
         </is>
       </c>
-      <c r="J24" s="12" t="inlineStr">
+      <c r="J24" s="13" t="inlineStr">
         <is>
           <t>356,665,000</t>
         </is>
@@ -1741,7 +1790,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H25" s="7" t="inlineStr"/>
+      <c r="H25" s="10" t="n">
+        <v>-23.8843</v>
+      </c>
       <c r="I25" s="7" t="inlineStr">
         <is>
           <t>200,000,000</t>
@@ -1754,48 +1805,48 @@
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="10" t="inlineStr">
+      <c r="A26" s="11" t="inlineStr">
         <is>
           <t>Oxford Industries Inc</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr">
+      <c r="B26" s="12" t="inlineStr">
         <is>
           <t>OXM</t>
         </is>
       </c>
-      <c r="C26" s="12" t="inlineStr">
+      <c r="C26" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D26" s="13" t="inlineStr">
+      <c r="D26" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E26" s="13" t="inlineStr">
+      <c r="E26" s="14" t="inlineStr">
         <is>
           <t>Affordable Segment</t>
         </is>
       </c>
-      <c r="F26" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G26" s="14" t="inlineStr">
+      <c r="F26" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G26" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H26" s="12" t="inlineStr"/>
-      <c r="I26" s="12" t="inlineStr">
+      <c r="H26" s="13" t="inlineStr"/>
+      <c r="I26" s="13" t="inlineStr">
         <is>
           <t>125,386,000</t>
         </is>
       </c>
-      <c r="J26" s="12" t="inlineStr">
+      <c r="J26" s="13" t="inlineStr">
         <is>
           <t>222,557,000</t>
         </is>
@@ -1837,7 +1888,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H27" s="7" t="inlineStr"/>
+      <c r="H27" s="10" t="n">
+        <v>3.4884</v>
+      </c>
       <c r="I27" s="7" t="inlineStr">
         <is>
           <t>360,803,535,170</t>
@@ -1850,48 +1903,50 @@
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="10" t="inlineStr">
+      <c r="A28" s="11" t="inlineStr">
         <is>
           <t>Columbia Sportswear Co</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr">
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>COLM.O</t>
         </is>
       </c>
-      <c r="C28" s="12" t="inlineStr">
+      <c r="C28" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="D28" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E28" s="13" t="inlineStr">
+      <c r="E28" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F28" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G28" s="14" t="inlineStr">
+      <c r="F28" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G28" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H28" s="12" t="inlineStr"/>
-      <c r="I28" s="12" t="inlineStr">
+      <c r="H28" s="17" t="n">
+        <v>-0.5531</v>
+      </c>
+      <c r="I28" s="13" t="inlineStr">
         <is>
           <t>270,741,000</t>
         </is>
       </c>
-      <c r="J28" s="12" t="inlineStr">
+      <c r="J28" s="13" t="inlineStr">
         <is>
           <t>429,504,000</t>
         </is>
@@ -1933,7 +1988,9 @@
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H29" s="7" t="inlineStr"/>
+      <c r="H29" s="10" t="n">
+        <v>2.0478</v>
+      </c>
       <c r="I29" s="7" t="inlineStr">
         <is>
           <t>202,146,000</t>
@@ -1946,48 +2003,48 @@
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="10" t="inlineStr">
+      <c r="A30" s="11" t="inlineStr">
         <is>
           <t>Amer Sports Inc</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr">
+      <c r="B30" s="12" t="inlineStr">
         <is>
           <t>AS</t>
         </is>
       </c>
-      <c r="C30" s="12" t="inlineStr">
+      <c r="C30" s="13" t="inlineStr">
         <is>
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D30" s="13" t="inlineStr">
+      <c r="D30" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E30" s="13" t="inlineStr">
+      <c r="E30" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F30" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G30" s="14" t="inlineStr">
+      <c r="F30" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G30" s="15" t="inlineStr">
         <is>
           <t>Zeile 1</t>
         </is>
       </c>
-      <c r="H30" s="12" t="inlineStr"/>
-      <c r="I30" s="12" t="inlineStr">
+      <c r="H30" s="13" t="inlineStr"/>
+      <c r="I30" s="13" t="inlineStr">
         <is>
           <t>520,100,000</t>
         </is>
       </c>
-      <c r="J30" s="12" t="inlineStr">
+      <c r="J30" s="13" t="inlineStr">
         <is>
           <t>252,000,000</t>
         </is>
@@ -2029,7 +2086,9 @@
           <t>Zeile 2</t>
         </is>
       </c>
-      <c r="H31" s="7" t="inlineStr"/>
+      <c r="H31" s="10" t="n">
+        <v>-2.4463</v>
+      </c>
       <c r="I31" s="7" t="inlineStr">
         <is>
           <t>14,724,000,000</t>
@@ -2042,48 +2101,50 @@
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
-      <c r="A32" s="10" t="inlineStr">
+      <c r="A32" s="11" t="inlineStr">
         <is>
           <t>Keurig Dr Pepper Inc</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr">
+      <c r="B32" s="12" t="inlineStr">
         <is>
           <t>KDP.O</t>
         </is>
       </c>
-      <c r="C32" s="12" t="inlineStr">
+      <c r="C32" s="13" t="inlineStr">
         <is>
           <t>Consumer Staples</t>
         </is>
       </c>
-      <c r="D32" s="13" t="inlineStr">
+      <c r="D32" s="14" t="inlineStr">
         <is>
           <t>Soft Drinks</t>
         </is>
       </c>
-      <c r="E32" s="13" t="inlineStr">
+      <c r="E32" s="14" t="inlineStr">
         <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="F32" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G32" s="14" t="inlineStr">
+      <c r="F32" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G32" s="15" t="inlineStr">
         <is>
           <t>Zeile 2</t>
         </is>
       </c>
-      <c r="H32" s="12" t="inlineStr"/>
-      <c r="I32" s="12" t="inlineStr">
+      <c r="H32" s="16" t="n">
+        <v>3.0822</v>
+      </c>
+      <c r="I32" s="13" t="inlineStr">
         <is>
           <t>3,400,000,000</t>
         </is>
       </c>
-      <c r="J32" s="12" t="inlineStr">
+      <c r="J32" s="13" t="inlineStr">
         <is>
           <t>2,983,000,000</t>
         </is>
@@ -2125,7 +2186,9 @@
           <t>Zeile 2</t>
         </is>
       </c>
-      <c r="H33" s="7" t="inlineStr"/>
+      <c r="H33" s="10" t="n">
+        <v>10.3658</v>
+      </c>
       <c r="I33" s="7" t="inlineStr">
         <is>
           <t>68,953,000,000</t>
@@ -2138,48 +2201,50 @@
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
-      <c r="A34" s="10" t="inlineStr">
+      <c r="A34" s="11" t="inlineStr">
         <is>
           <t>Coca-Cola Europacific Partners PLC</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr">
+      <c r="B34" s="12" t="inlineStr">
         <is>
           <t>CCEP.O</t>
         </is>
       </c>
-      <c r="C34" s="12" t="inlineStr">
+      <c r="C34" s="13" t="inlineStr">
         <is>
           <t>Consumer Staples</t>
         </is>
       </c>
-      <c r="D34" s="13" t="inlineStr">
+      <c r="D34" s="14" t="inlineStr">
         <is>
           <t>Soft Drinks</t>
         </is>
       </c>
-      <c r="E34" s="13" t="inlineStr">
+      <c r="E34" s="14" t="inlineStr">
         <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="F34" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G34" s="14" t="inlineStr">
+      <c r="F34" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G34" s="15" t="inlineStr">
         <is>
           <t>Zeile 2</t>
         </is>
       </c>
-      <c r="H34" s="12" t="inlineStr"/>
-      <c r="I34" s="12" t="inlineStr">
+      <c r="H34" s="16" t="n">
+        <v>7.1215</v>
+      </c>
+      <c r="I34" s="13" t="inlineStr">
         <is>
           <t>2,614,000,000</t>
         </is>
       </c>
-      <c r="J34" s="12" t="inlineStr">
+      <c r="J34" s="13" t="inlineStr">
         <is>
           <t>2,324,000,000</t>
         </is>
@@ -2221,7 +2286,9 @@
           <t>Zeile 2</t>
         </is>
       </c>
-      <c r="H35" s="7" t="inlineStr"/>
+      <c r="H35" s="10" t="n">
+        <v>3.3866</v>
+      </c>
       <c r="I35" s="7" t="inlineStr">
         <is>
           <t>2,069,094,000</t>
@@ -2234,48 +2301,50 @@
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
-      <c r="A36" s="10" t="inlineStr">
+      <c r="A36" s="11" t="inlineStr">
         <is>
           <t>Arca Continental SAB de CV</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr">
+      <c r="B36" s="12" t="inlineStr">
         <is>
           <t>AC.MX</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr">
+      <c r="C36" s="13" t="inlineStr">
         <is>
           <t>Consumer Staples</t>
         </is>
       </c>
-      <c r="D36" s="13" t="inlineStr">
+      <c r="D36" s="14" t="inlineStr">
         <is>
           <t>Soft Drinks</t>
         </is>
       </c>
-      <c r="E36" s="13" t="inlineStr">
+      <c r="E36" s="14" t="inlineStr">
         <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="F36" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G36" s="14" t="inlineStr">
+      <c r="F36" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G36" s="15" t="inlineStr">
         <is>
           <t>Zeile 2</t>
         </is>
       </c>
-      <c r="H36" s="12" t="inlineStr"/>
-      <c r="I36" s="12" t="inlineStr">
+      <c r="H36" s="16" t="n">
+        <v>22.8146</v>
+      </c>
+      <c r="I36" s="13" t="inlineStr">
         <is>
           <t>39,190,682,000</t>
         </is>
       </c>
-      <c r="J36" s="12" t="inlineStr">
+      <c r="J36" s="13" t="inlineStr">
         <is>
           <t>30,691,220,000</t>
         </is>
@@ -2317,7 +2386,9 @@
           <t>Zeile 2</t>
         </is>
       </c>
-      <c r="H37" s="7" t="inlineStr"/>
+      <c r="H37" s="10" t="n">
+        <v>24.0117</v>
+      </c>
       <c r="I37" s="7" t="inlineStr">
         <is>
           <t>1,194,000,000</t>
@@ -2330,48 +2401,50 @@
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
-      <c r="A38" s="10" t="inlineStr">
+      <c r="A38" s="11" t="inlineStr">
         <is>
           <t>Suntory Beverage &amp; Food Ltd</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr">
+      <c r="B38" s="12" t="inlineStr">
         <is>
           <t>2587.T</t>
         </is>
       </c>
-      <c r="C38" s="12" t="inlineStr">
+      <c r="C38" s="13" t="inlineStr">
         <is>
           <t>Consumer Staples</t>
         </is>
       </c>
-      <c r="D38" s="13" t="inlineStr">
+      <c r="D38" s="14" t="inlineStr">
         <is>
           <t>Soft Drinks</t>
         </is>
       </c>
-      <c r="E38" s="13" t="inlineStr">
+      <c r="E38" s="14" t="inlineStr">
         <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="F38" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G38" s="14" t="inlineStr">
+      <c r="F38" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G38" s="15" t="inlineStr">
         <is>
           <t>Zeile 2</t>
         </is>
       </c>
-      <c r="H38" s="12" t="inlineStr"/>
-      <c r="I38" s="12" t="inlineStr">
+      <c r="H38" s="16" t="n">
+        <v>-3.5507</v>
+      </c>
+      <c r="I38" s="13" t="inlineStr">
         <is>
           <t>169,975,000,000</t>
         </is>
       </c>
-      <c r="J38" s="12" t="inlineStr">
+      <c r="J38" s="13" t="inlineStr">
         <is>
           <t>133,783,000,000</t>
         </is>
@@ -2426,48 +2499,48 @@
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
-      <c r="A40" s="10" t="inlineStr">
+      <c r="A40" s="11" t="inlineStr">
         <is>
           <t>Primo Water Corp</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr">
+      <c r="B40" s="12" t="inlineStr">
         <is>
           <t>PRMW.TO</t>
         </is>
       </c>
-      <c r="C40" s="12" t="inlineStr">
+      <c r="C40" s="13" t="inlineStr">
         <is>
           <t>Consumer Staples</t>
         </is>
       </c>
-      <c r="D40" s="13" t="inlineStr">
+      <c r="D40" s="14" t="inlineStr">
         <is>
           <t>Soft Drinks</t>
         </is>
       </c>
-      <c r="E40" s="13" t="inlineStr">
+      <c r="E40" s="14" t="inlineStr">
         <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="F40" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G40" s="14" t="inlineStr">
+      <c r="F40" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G40" s="15" t="inlineStr">
         <is>
           <t>Zeile 2</t>
         </is>
       </c>
-      <c r="H40" s="12" t="inlineStr"/>
-      <c r="I40" s="12" t="inlineStr">
+      <c r="H40" s="13" t="inlineStr"/>
+      <c r="I40" s="13" t="inlineStr">
         <is>
           <t>161,000,000</t>
         </is>
       </c>
-      <c r="J40" s="12" t="inlineStr">
+      <c r="J40" s="13" t="inlineStr">
         <is>
           <t>121,800,000</t>
         </is>
@@ -2509,7 +2582,9 @@
           <t>Zeile 2</t>
         </is>
       </c>
-      <c r="H41" s="7" t="inlineStr"/>
+      <c r="H41" s="10" t="n">
+        <v>-4.898</v>
+      </c>
       <c r="I41" s="7" t="inlineStr">
         <is>
           <t>235,459,000</t>
@@ -2522,48 +2597,46 @@
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
-      <c r="A42" s="10" t="inlineStr">
+      <c r="A42" s="11" t="inlineStr">
         <is>
           <t>Scout24 SE</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr">
+      <c r="B42" s="12" t="inlineStr">
         <is>
           <t>RMV.L</t>
         </is>
       </c>
-      <c r="C42" s="12" t="inlineStr">
+      <c r="C42" s="13" t="inlineStr">
         <is>
           <t>Real Estate</t>
         </is>
       </c>
-      <c r="D42" s="13" t="inlineStr">
+      <c r="D42" s="14" t="inlineStr">
         <is>
           <t>Interactive Media &amp; Services</t>
         </is>
       </c>
-      <c r="E42" s="13" t="inlineStr">
+      <c r="E42" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F42" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G42" s="14" t="inlineStr">
+      <c r="F42" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G42" s="15" t="inlineStr">
         <is>
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H42" s="12" t="inlineStr"/>
-      <c r="I42" s="12" t="inlineStr">
-        <is>
-          <t>265,560,000</t>
-        </is>
-      </c>
-      <c r="J42" s="12" t="inlineStr">
+      <c r="H42" s="16" t="n">
+        <v>17.3732</v>
+      </c>
+      <c r="I42" s="13" t="inlineStr"/>
+      <c r="J42" s="13" t="inlineStr">
         <is>
           <t>241,343,000</t>
         </is>
@@ -2606,11 +2679,7 @@
         </is>
       </c>
       <c r="H43" s="7" t="inlineStr"/>
-      <c r="I43" s="7" t="inlineStr">
-        <is>
-          <t>93,250,000</t>
-        </is>
-      </c>
+      <c r="I43" s="7" t="inlineStr"/>
       <c r="J43" s="7" t="inlineStr">
         <is>
           <t>84,455,000</t>
@@ -2618,48 +2687,46 @@
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
-      <c r="A44" s="10" t="inlineStr">
+      <c r="A44" s="11" t="inlineStr">
         <is>
           <t>Meta Platforms Inc</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr">
+      <c r="B44" s="12" t="inlineStr">
         <is>
           <t>META.O</t>
         </is>
       </c>
-      <c r="C44" s="12" t="inlineStr">
+      <c r="C44" s="13" t="inlineStr">
         <is>
           <t>Information Technology</t>
         </is>
       </c>
-      <c r="D44" s="13" t="inlineStr">
+      <c r="D44" s="14" t="inlineStr">
         <is>
           <t>Interactive Media &amp; Services</t>
         </is>
       </c>
-      <c r="E44" s="13" t="inlineStr">
+      <c r="E44" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F44" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G44" s="14" t="inlineStr">
+      <c r="F44" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G44" s="15" t="inlineStr">
         <is>
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H44" s="12" t="inlineStr"/>
-      <c r="I44" s="12" t="inlineStr">
-        <is>
-          <t>69,769,000,000</t>
-        </is>
-      </c>
-      <c r="J44" s="12" t="inlineStr">
+      <c r="H44" s="16" t="n">
+        <v>78.2094</v>
+      </c>
+      <c r="I44" s="13" t="inlineStr"/>
+      <c r="J44" s="13" t="inlineStr">
         <is>
           <t>33,555,000,000</t>
         </is>
@@ -2701,60 +2768,56 @@
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H45" s="7" t="inlineStr"/>
-      <c r="I45" s="15" t="inlineStr">
-        <is>
-          <t>-717137000.00</t>
-        </is>
-      </c>
-      <c r="J45" s="15" t="inlineStr">
+      <c r="H45" s="10" t="n">
+        <v>-32.7819</v>
+      </c>
+      <c r="I45" s="7" t="inlineStr"/>
+      <c r="J45" s="10" t="inlineStr">
         <is>
           <t>-1206357000.00</t>
         </is>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
-      <c r="A46" s="10" t="inlineStr">
+      <c r="A46" s="11" t="inlineStr">
         <is>
           <t>Pinterest Inc</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr">
+      <c r="B46" s="12" t="inlineStr">
         <is>
           <t>PINS.N</t>
         </is>
       </c>
-      <c r="C46" s="12" t="inlineStr">
+      <c r="C46" s="13" t="inlineStr">
         <is>
           <t>Information Technology</t>
         </is>
       </c>
-      <c r="D46" s="13" t="inlineStr">
+      <c r="D46" s="14" t="inlineStr">
         <is>
           <t>Interactive Media &amp; Services</t>
         </is>
       </c>
-      <c r="E46" s="13" t="inlineStr">
+      <c r="E46" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F46" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G46" s="14" t="inlineStr">
+      <c r="F46" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G46" s="15" t="inlineStr">
         <is>
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H46" s="12" t="inlineStr"/>
-      <c r="I46" s="12" t="inlineStr">
-        <is>
-          <t>214,467,000</t>
-        </is>
-      </c>
+      <c r="H46" s="16" t="n">
+        <v>-16.7386</v>
+      </c>
+      <c r="I46" s="13" t="inlineStr"/>
       <c r="J46" s="16" t="inlineStr">
         <is>
           <t>-81177000.00</t>
@@ -2797,12 +2860,10 @@
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H47" s="7" t="inlineStr"/>
-      <c r="I47" s="7" t="inlineStr">
-        <is>
-          <t>208,154,000,000</t>
-        </is>
-      </c>
+      <c r="H47" s="10" t="n">
+        <v>39.5095</v>
+      </c>
+      <c r="I47" s="7" t="inlineStr"/>
       <c r="J47" s="7" t="inlineStr">
         <is>
           <t>106,358,000,000</t>
@@ -2810,48 +2871,46 @@
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
-      <c r="A48" s="10" t="inlineStr">
+      <c r="A48" s="11" t="inlineStr">
         <is>
           <t>Naver Corp</t>
         </is>
       </c>
-      <c r="B48" s="11" t="inlineStr">
+      <c r="B48" s="12" t="inlineStr">
         <is>
           <t>035420.KS</t>
         </is>
       </c>
-      <c r="C48" s="12" t="inlineStr">
+      <c r="C48" s="13" t="inlineStr">
         <is>
           <t>Information Technology</t>
         </is>
       </c>
-      <c r="D48" s="13" t="inlineStr">
+      <c r="D48" s="14" t="inlineStr">
         <is>
           <t>Interactive Media &amp; Services</t>
         </is>
       </c>
-      <c r="E48" s="13" t="inlineStr">
+      <c r="E48" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F48" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G48" s="14" t="inlineStr">
+      <c r="F48" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G48" s="15" t="inlineStr">
         <is>
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H48" s="12" t="inlineStr"/>
-      <c r="I48" s="12" t="inlineStr">
-        <is>
-          <t>1,979,263,438,830</t>
-        </is>
-      </c>
-      <c r="J48" s="12" t="inlineStr">
+      <c r="H48" s="16" t="n">
+        <v>-6.2499</v>
+      </c>
+      <c r="I48" s="13" t="inlineStr"/>
+      <c r="J48" s="13" t="inlineStr">
         <is>
           <t>1,304,664,410,540</t>
         </is>
@@ -2893,12 +2952,10 @@
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H49" s="7" t="inlineStr"/>
-      <c r="I49" s="7" t="inlineStr">
-        <is>
-          <t>460,212,161,530</t>
-        </is>
-      </c>
+      <c r="H49" s="10" t="n">
+        <v>-15.4695</v>
+      </c>
+      <c r="I49" s="7" t="inlineStr"/>
       <c r="J49" s="7" t="inlineStr">
         <is>
           <t>569,390,445,170</t>
@@ -2906,48 +2963,46 @@
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
-      <c r="A50" s="10" t="inlineStr">
+      <c r="A50" s="11" t="inlineStr">
         <is>
           <t>Baidu Inc</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr">
+      <c r="B50" s="12" t="inlineStr">
         <is>
           <t>BIDU.O</t>
         </is>
       </c>
-      <c r="C50" s="12" t="inlineStr">
+      <c r="C50" s="13" t="inlineStr">
         <is>
           <t>Information Technology</t>
         </is>
       </c>
-      <c r="D50" s="13" t="inlineStr">
+      <c r="D50" s="14" t="inlineStr">
         <is>
           <t>Interactive Media &amp; Services</t>
         </is>
       </c>
-      <c r="E50" s="13" t="inlineStr">
+      <c r="E50" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F50" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G50" s="14" t="inlineStr">
+      <c r="F50" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G50" s="15" t="inlineStr">
         <is>
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H50" s="12" t="inlineStr"/>
-      <c r="I50" s="12" t="inlineStr">
-        <is>
-          <t>21,270,000,000</t>
-        </is>
-      </c>
-      <c r="J50" s="12" t="inlineStr">
+      <c r="H50" s="16" t="n">
+        <v>-24.1581</v>
+      </c>
+      <c r="I50" s="13" t="inlineStr"/>
+      <c r="J50" s="13" t="inlineStr">
         <is>
           <t>15,912,000,000</t>
         </is>
@@ -2989,12 +3044,10 @@
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H51" s="7" t="inlineStr"/>
-      <c r="I51" s="7" t="inlineStr">
-        <is>
-          <t>853,912,000</t>
-        </is>
-      </c>
+      <c r="H51" s="10" t="n">
+        <v>-16.2191</v>
+      </c>
+      <c r="I51" s="7" t="inlineStr"/>
       <c r="J51" s="7" t="inlineStr">
         <is>
           <t>515,005,000</t>
@@ -3002,48 +3055,46 @@
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
-      <c r="A52" s="10" t="inlineStr">
+      <c r="A52" s="11" t="inlineStr">
         <is>
           <t>LY Corp</t>
         </is>
       </c>
-      <c r="B52" s="11" t="inlineStr">
+      <c r="B52" s="12" t="inlineStr">
         <is>
           <t>4689.T</t>
         </is>
       </c>
-      <c r="C52" s="12" t="inlineStr">
+      <c r="C52" s="13" t="inlineStr">
         <is>
           <t>Information Technology</t>
         </is>
       </c>
-      <c r="D52" s="13" t="inlineStr">
+      <c r="D52" s="14" t="inlineStr">
         <is>
           <t>Interactive Media &amp; Services</t>
         </is>
       </c>
-      <c r="E52" s="13" t="inlineStr">
+      <c r="E52" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F52" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G52" s="14" t="inlineStr">
+      <c r="F52" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G52" s="15" t="inlineStr">
         <is>
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H52" s="12" t="inlineStr"/>
-      <c r="I52" s="12" t="inlineStr">
-        <is>
-          <t>271,978,000,000</t>
-        </is>
-      </c>
-      <c r="J52" s="12" t="inlineStr">
+      <c r="H52" s="16" t="n">
+        <v>-11.7269</v>
+      </c>
+      <c r="I52" s="13" t="inlineStr"/>
+      <c r="J52" s="13" t="inlineStr">
         <is>
           <t>159,365,000,000</t>
         </is>
@@ -3085,12 +3136,10 @@
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H53" s="7" t="inlineStr"/>
-      <c r="I53" s="7" t="inlineStr">
-        <is>
-          <t>198,921,000</t>
-        </is>
-      </c>
+      <c r="H53" s="10" t="n">
+        <v>-12.2785</v>
+      </c>
+      <c r="I53" s="7" t="inlineStr"/>
       <c r="J53" s="7" t="inlineStr">
         <is>
           <t>226,310,000</t>
@@ -3098,48 +3147,46 @@
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
-      <c r="A54" s="10" t="inlineStr">
+      <c r="A54" s="11" t="inlineStr">
         <is>
           <t>Yelp Inc</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr">
+      <c r="B54" s="12" t="inlineStr">
         <is>
           <t>YELP.K</t>
         </is>
       </c>
-      <c r="C54" s="12" t="inlineStr">
+      <c r="C54" s="13" t="inlineStr">
         <is>
           <t>Information Technology</t>
         </is>
       </c>
-      <c r="D54" s="13" t="inlineStr">
+      <c r="D54" s="14" t="inlineStr">
         <is>
           <t>Interactive Media &amp; Services</t>
         </is>
       </c>
-      <c r="E54" s="13" t="inlineStr">
+      <c r="E54" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F54" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G54" s="14" t="inlineStr">
+      <c r="F54" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G54" s="15" t="inlineStr">
         <is>
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H54" s="12" t="inlineStr"/>
-      <c r="I54" s="12" t="inlineStr">
-        <is>
-          <t>158,225,000</t>
-        </is>
-      </c>
-      <c r="J54" s="12" t="inlineStr">
+      <c r="H54" s="16" t="n">
+        <v>-15.1034</v>
+      </c>
+      <c r="I54" s="13" t="inlineStr"/>
+      <c r="J54" s="13" t="inlineStr">
         <is>
           <t>68,817,000</t>
         </is>
@@ -3181,12 +3228,10 @@
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H55" s="7" t="inlineStr"/>
-      <c r="I55" s="7" t="inlineStr">
-        <is>
-          <t>474,627,000</t>
-        </is>
-      </c>
+      <c r="H55" s="10" t="n">
+        <v>22.4149</v>
+      </c>
+      <c r="I55" s="7" t="inlineStr"/>
       <c r="J55" s="7" t="inlineStr">
         <is>
           <t>353,622,000</t>
@@ -3194,48 +3239,46 @@
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
-      <c r="A56" s="10" t="inlineStr">
+      <c r="A56" s="11" t="inlineStr">
         <is>
           <t>REA Group Ltd</t>
         </is>
       </c>
-      <c r="B56" s="11" t="inlineStr">
+      <c r="B56" s="12" t="inlineStr">
         <is>
           <t>REA.AX</t>
         </is>
       </c>
-      <c r="C56" s="12" t="inlineStr">
+      <c r="C56" s="13" t="inlineStr">
         <is>
           <t>Information Technology</t>
         </is>
       </c>
-      <c r="D56" s="13" t="inlineStr">
+      <c r="D56" s="14" t="inlineStr">
         <is>
           <t>Interactive Media &amp; Services</t>
         </is>
       </c>
-      <c r="E56" s="13" t="inlineStr">
+      <c r="E56" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F56" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G56" s="14" t="inlineStr">
+      <c r="F56" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G56" s="15" t="inlineStr">
         <is>
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H56" s="12" t="inlineStr"/>
-      <c r="I56" s="12" t="inlineStr">
-        <is>
-          <t>820,700,000</t>
-        </is>
-      </c>
-      <c r="J56" s="12" t="inlineStr">
+      <c r="H56" s="16" t="n">
+        <v>33.1493</v>
+      </c>
+      <c r="I56" s="13" t="inlineStr"/>
+      <c r="J56" s="13" t="inlineStr">
         <is>
           <t>560,700,000</t>
         </is>
@@ -3277,53 +3320,53 @@
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H57" s="7" t="inlineStr"/>
+      <c r="H57" s="10" t="n">
+        <v>-42.6175</v>
+      </c>
       <c r="I57" s="7" t="inlineStr"/>
       <c r="J57" s="7" t="inlineStr"/>
     </row>
     <row r="58" ht="20" customHeight="1">
-      <c r="A58" s="10" t="inlineStr">
+      <c r="A58" s="11" t="inlineStr">
         <is>
           <t>Tripadvisor Inc</t>
         </is>
       </c>
-      <c r="B58" s="11" t="inlineStr">
+      <c r="B58" s="12" t="inlineStr">
         <is>
           <t>TRIP.OQ</t>
         </is>
       </c>
-      <c r="C58" s="12" t="inlineStr">
+      <c r="C58" s="13" t="inlineStr">
         <is>
           <t>Information Technology</t>
         </is>
       </c>
-      <c r="D58" s="13" t="inlineStr">
+      <c r="D58" s="14" t="inlineStr">
         <is>
           <t>Interactive Media &amp; Services</t>
         </is>
       </c>
-      <c r="E58" s="13" t="inlineStr">
+      <c r="E58" s="14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="F58" s="14" t="inlineStr">
-        <is>
-          <t>Sub-Industry</t>
-        </is>
-      </c>
-      <c r="G58" s="14" t="inlineStr">
+      <c r="F58" s="15" t="inlineStr">
+        <is>
+          <t>Sub-Industry</t>
+        </is>
+      </c>
+      <c r="G58" s="15" t="inlineStr">
         <is>
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H58" s="12" t="inlineStr"/>
-      <c r="I58" s="12" t="inlineStr">
-        <is>
-          <t>134,000,000</t>
-        </is>
-      </c>
-      <c r="J58" s="12" t="inlineStr">
+      <c r="H58" s="16" t="n">
+        <v>-36.5071</v>
+      </c>
+      <c r="I58" s="13" t="inlineStr"/>
+      <c r="J58" s="13" t="inlineStr">
         <is>
           <t>98,000,000</t>
         </is>
@@ -3365,12 +3408,10 @@
           <t>Zeile 3</t>
         </is>
       </c>
-      <c r="H59" s="7" t="inlineStr"/>
-      <c r="I59" s="15" t="inlineStr">
-        <is>
-          <t>-2003000.00</t>
-        </is>
-      </c>
+      <c r="H59" s="10" t="n">
+        <v>-2.4589</v>
+      </c>
+      <c r="I59" s="7" t="inlineStr"/>
       <c r="J59" s="7" t="inlineStr">
         <is>
           <t>85,980,000</t>
@@ -3378,26 +3419,26 @@
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
-      <c r="A60" s="10" t="inlineStr">
+      <c r="A60" s="11" t="inlineStr">
         <is>
           <t>💼 Ø Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="B60" s="11" t="inlineStr"/>
-      <c r="C60" s="12" t="inlineStr"/>
-      <c r="D60" s="13" t="inlineStr">
+      <c r="B60" s="12" t="inlineStr"/>
+      <c r="C60" s="13" t="inlineStr"/>
+      <c r="D60" s="14" t="inlineStr">
         <is>
           <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
-      <c r="E60" s="13" t="inlineStr"/>
-      <c r="F60" s="14" t="inlineStr"/>
-      <c r="G60" s="14" t="inlineStr"/>
+      <c r="E60" s="14" t="inlineStr"/>
+      <c r="F60" s="15" t="inlineStr"/>
+      <c r="G60" s="15" t="inlineStr"/>
       <c r="H60" s="16" t="n">
         <v>-4.415934615384616</v>
       </c>
-      <c r="I60" s="12" t="inlineStr"/>
-      <c r="J60" s="12" t="inlineStr"/>
+      <c r="I60" s="13" t="inlineStr"/>
+      <c r="J60" s="13" t="inlineStr"/>
     </row>
     <row r="61" ht="20" customHeight="1">
       <c r="A61" s="5" t="inlineStr">
@@ -3415,33 +3456,33 @@
       <c r="E61" s="8" t="inlineStr"/>
       <c r="F61" s="9" t="inlineStr"/>
       <c r="G61" s="9" t="inlineStr"/>
-      <c r="H61" s="15" t="n">
+      <c r="H61" s="10" t="n">
         <v>6.654155555555556</v>
       </c>
       <c r="I61" s="7" t="inlineStr"/>
       <c r="J61" s="7" t="inlineStr"/>
     </row>
     <row r="62" ht="20" customHeight="1">
-      <c r="A62" s="10" t="inlineStr">
+      <c r="A62" s="11" t="inlineStr">
         <is>
           <t>💼 Ø Interactive Media &amp; Services</t>
         </is>
       </c>
-      <c r="B62" s="11" t="inlineStr"/>
-      <c r="C62" s="12" t="inlineStr"/>
-      <c r="D62" s="13" t="inlineStr">
+      <c r="B62" s="12" t="inlineStr"/>
+      <c r="C62" s="13" t="inlineStr"/>
+      <c r="D62" s="14" t="inlineStr">
         <is>
           <t>Interactive Media &amp; Services</t>
         </is>
       </c>
-      <c r="E62" s="13" t="inlineStr"/>
-      <c r="F62" s="14" t="inlineStr"/>
-      <c r="G62" s="14" t="inlineStr"/>
+      <c r="E62" s="14" t="inlineStr"/>
+      <c r="F62" s="15" t="inlineStr"/>
+      <c r="G62" s="15" t="inlineStr"/>
       <c r="H62" s="16" t="n">
         <v>2.359633333333333</v>
       </c>
-      <c r="I62" s="12" t="inlineStr"/>
-      <c r="J62" s="12" t="inlineStr"/>
+      <c r="I62" s="13" t="inlineStr"/>
+      <c r="J62" s="13" t="inlineStr"/>
     </row>
     <row r="63" ht="20" customHeight="1">
       <c r="A63" s="5" t="inlineStr">
@@ -3467,32 +3508,32 @@
           <t>Focus-Ø (7 Unternehmen)</t>
         </is>
       </c>
-      <c r="H63" s="15" t="n">
+      <c r="H63" s="10" t="n">
         <v>-19.04637142857143</v>
       </c>
       <c r="I63" s="7" t="inlineStr"/>
       <c r="J63" s="7" t="inlineStr"/>
     </row>
     <row r="64" ht="20" customHeight="1">
-      <c r="A64" s="10" t="inlineStr">
+      <c r="A64" s="11" t="inlineStr">
         <is>
           <t>🎯 Ø Luxury Segment</t>
         </is>
       </c>
-      <c r="B64" s="11" t="inlineStr"/>
-      <c r="C64" s="12" t="inlineStr"/>
-      <c r="D64" s="13" t="inlineStr"/>
-      <c r="E64" s="13" t="inlineStr">
+      <c r="B64" s="12" t="inlineStr"/>
+      <c r="C64" s="13" t="inlineStr"/>
+      <c r="D64" s="14" t="inlineStr"/>
+      <c r="E64" s="14" t="inlineStr">
         <is>
           <t>Luxury Segment</t>
         </is>
       </c>
-      <c r="F64" s="14" t="inlineStr">
+      <c r="F64" s="15" t="inlineStr">
         <is>
           <t>Focus-Durchschnitt</t>
         </is>
       </c>
-      <c r="G64" s="14" t="inlineStr">
+      <c r="G64" s="15" t="inlineStr">
         <is>
           <t>Focus-Ø (4 Unternehmen)</t>
         </is>
@@ -3500,8 +3541,8 @@
       <c r="H64" s="16" t="n">
         <v>-2.37225</v>
       </c>
-      <c r="I64" s="12" t="inlineStr"/>
-      <c r="J64" s="12" t="inlineStr"/>
+      <c r="I64" s="13" t="inlineStr"/>
+      <c r="J64" s="13" t="inlineStr"/>
     </row>
     <row r="65" ht="20" customHeight="1">
       <c r="A65" s="5" t="inlineStr">
@@ -3527,32 +3568,32 @@
           <t>Focus-Ø (12 Unternehmen)</t>
         </is>
       </c>
-      <c r="H65" s="15" t="n">
+      <c r="H65" s="10" t="n">
         <v>1.918016666666666</v>
       </c>
       <c r="I65" s="7" t="inlineStr"/>
       <c r="J65" s="7" t="inlineStr"/>
     </row>
     <row r="66" ht="20" customHeight="1">
-      <c r="A66" s="10" t="inlineStr">
+      <c r="A66" s="11" t="inlineStr">
         <is>
           <t>🎯 Ø Beverages</t>
         </is>
       </c>
-      <c r="B66" s="11" t="inlineStr"/>
-      <c r="C66" s="12" t="inlineStr"/>
-      <c r="D66" s="13" t="inlineStr"/>
-      <c r="E66" s="13" t="inlineStr">
+      <c r="B66" s="12" t="inlineStr"/>
+      <c r="C66" s="13" t="inlineStr"/>
+      <c r="D66" s="14" t="inlineStr"/>
+      <c r="E66" s="14" t="inlineStr">
         <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="F66" s="14" t="inlineStr">
+      <c r="F66" s="15" t="inlineStr">
         <is>
           <t>Focus-Durchschnitt</t>
         </is>
       </c>
-      <c r="G66" s="14" t="inlineStr">
+      <c r="G66" s="15" t="inlineStr">
         <is>
           <t>Focus-Ø (11 Unternehmen)</t>
         </is>
@@ -3560,8 +3601,8 @@
       <c r="H66" s="16" t="n">
         <v>6.654155555555556</v>
       </c>
-      <c r="I66" s="12" t="inlineStr"/>
-      <c r="J66" s="12" t="inlineStr"/>
+      <c r="I66" s="13" t="inlineStr"/>
+      <c r="J66" s="13" t="inlineStr"/>
     </row>
     <row r="67" ht="20" customHeight="1">
       <c r="A67" s="5" t="inlineStr">
@@ -3588,43 +3629,43 @@
         </is>
       </c>
       <c r="H67" s="7" t="inlineStr"/>
-      <c r="I67" s="15" t="n">
-        <v>630361361.9697</v>
-      </c>
-      <c r="J67" s="15" t="n">
-        <v>749236609.6895</v>
+      <c r="I67" s="10" t="n">
+        <v>633053920.7848001</v>
+      </c>
+      <c r="J67" s="10" t="n">
+        <v>752977042.0763</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1">
-      <c r="A68" s="10" t="inlineStr">
-        <is>
-          <t>🏭 Ø Consumer Discretionary</t>
-        </is>
-      </c>
-      <c r="B68" s="11" t="inlineStr"/>
-      <c r="C68" s="12" t="inlineStr">
-        <is>
-          <t>Consumer Discretionary</t>
-        </is>
-      </c>
-      <c r="D68" s="13" t="inlineStr"/>
-      <c r="E68" s="13" t="inlineStr"/>
-      <c r="F68" s="14" t="inlineStr">
+      <c r="A68" s="11" t="inlineStr">
+        <is>
+          <t>🏭 Ø Real Estate</t>
+        </is>
+      </c>
+      <c r="B68" s="12" t="inlineStr"/>
+      <c r="C68" s="13" t="inlineStr">
+        <is>
+          <t>Real Estate</t>
+        </is>
+      </c>
+      <c r="D68" s="14" t="inlineStr"/>
+      <c r="E68" s="14" t="inlineStr"/>
+      <c r="F68" s="15" t="inlineStr">
         <is>
           <t>GICS-Sektor-Durchschnitt</t>
         </is>
       </c>
-      <c r="G68" s="14" t="inlineStr">
+      <c r="G68" s="15" t="inlineStr">
         <is>
           <t>GICS-Sektor-Ø (Refinitiv-Branchendurchschnitt)</t>
         </is>
       </c>
-      <c r="H68" s="12" t="inlineStr"/>
+      <c r="H68" s="13" t="inlineStr"/>
       <c r="I68" s="16" t="n">
-        <v>1174177883.9365</v>
+        <v>1089427082.8994</v>
       </c>
       <c r="J68" s="16" t="n">
-        <v>914241256.7812001</v>
+        <v>1079279417.5606</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1">
@@ -3652,49 +3693,49 @@
         </is>
       </c>
       <c r="H69" s="7" t="inlineStr"/>
-      <c r="I69" s="15" t="n">
-        <v>3546266335.8448</v>
-      </c>
-      <c r="J69" s="15" t="n">
-        <v>2918721581.658</v>
+      <c r="I69" s="10" t="n">
+        <v>3575065425.64</v>
+      </c>
+      <c r="J69" s="10" t="n">
+        <v>2937549836.9451</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="10" t="inlineStr">
-        <is>
-          <t>🏭 Ø Real Estate</t>
-        </is>
-      </c>
-      <c r="B70" s="11" t="inlineStr"/>
-      <c r="C70" s="12" t="inlineStr">
-        <is>
-          <t>Real Estate</t>
-        </is>
-      </c>
-      <c r="D70" s="13" t="inlineStr"/>
-      <c r="E70" s="13" t="inlineStr"/>
-      <c r="F70" s="14" t="inlineStr">
+      <c r="A70" s="11" t="inlineStr">
+        <is>
+          <t>🏭 Ø Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="B70" s="12" t="inlineStr"/>
+      <c r="C70" s="13" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="D70" s="14" t="inlineStr"/>
+      <c r="E70" s="14" t="inlineStr"/>
+      <c r="F70" s="15" t="inlineStr">
         <is>
           <t>GICS-Sektor-Durchschnitt</t>
         </is>
       </c>
-      <c r="G70" s="14" t="inlineStr">
+      <c r="G70" s="15" t="inlineStr">
         <is>
           <t>GICS-Sektor-Ø (Refinitiv-Branchendurchschnitt)</t>
         </is>
       </c>
-      <c r="H70" s="12" t="inlineStr"/>
+      <c r="H70" s="13" t="inlineStr"/>
       <c r="I70" s="16" t="n">
-        <v>1090122599.1533</v>
+        <v>1179370856.2807</v>
       </c>
       <c r="J70" s="16" t="n">
-        <v>1080237304.3735</v>
+        <v>921661400.5118001</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="17" t="inlineStr">
-        <is>
-          <t>📅 Generated: 2025-08-29 15:23:29 | 📊 Companies: 57</t>
+      <c r="A71" s="18" t="inlineStr">
+        <is>
+          <t>📅 Generated: 2025-09-02 13:48:16 | 📊 Companies: 57</t>
         </is>
       </c>
     </row>
